--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/ro_RO.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/ro_RO.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5202">
   <si>
     <t>translation_group</t>
   </si>
@@ -15577,12 +15577,6 @@
   </si>
   <si>
     <t xml:space="preserve"> notificări</t>
-  </si>
-  <si>
-    <t>2021-02-24T11:44:54.000000Z</t>
-  </si>
-  <si>
-    <t>2021-02-24T11: 44: 54.000000Z</t>
   </si>
   <si>
     <t>1 day ago</t>
@@ -15969,17 +15963,17 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D2772"/>
+  <dimension ref="A1:D2773"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D2772" sqref="D2772"/>
+      <selection activeCell="D2773" sqref="D2773"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="9.10" style="0"/>
-    <col min="2" max="2" width="9.10" style="0"/>
-    <col min="3" max="3" width="9.10" style="0"/>
+    <col min="2" max="2" width="22" customWidth="true" style="0"/>
+    <col min="3" max="3" width="255.7109375" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.10" style="0"/>
   </cols>
   <sheetData>
@@ -54626,18 +54620,10 @@
       </c>
     </row>
     <row r="2762" spans="1:4">
-      <c r="A2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2762" t="s">
-        <v>5186</v>
-      </c>
-      <c r="D2762" t="s">
-        <v>5187</v>
-      </c>
+      <c r="A2762"/>
+      <c r="B2762"/>
+      <c r="C2762"/>
+      <c r="D2762"/>
     </row>
     <row r="2763" spans="1:4">
       <c r="A2763" t="s">
@@ -54647,10 +54633,10 @@
         <v>4</v>
       </c>
       <c r="C2763" t="s">
-        <v>5188</v>
+        <v>5186</v>
       </c>
       <c r="D2763" t="s">
-        <v>5189</v>
+        <v>5187</v>
       </c>
     </row>
     <row r="2764" spans="1:4">
@@ -54661,10 +54647,10 @@
         <v>4</v>
       </c>
       <c r="C2764" t="s">
-        <v>5190</v>
+        <v>5188</v>
       </c>
       <c r="D2764" t="s">
-        <v>5191</v>
+        <v>5189</v>
       </c>
     </row>
     <row r="2765" spans="1:4">
@@ -54675,10 +54661,10 @@
         <v>4</v>
       </c>
       <c r="C2765" t="s">
-        <v>5192</v>
+        <v>5190</v>
       </c>
       <c r="D2765" t="s">
-        <v>5193</v>
+        <v>5191</v>
       </c>
     </row>
     <row r="2766" spans="1:4">
@@ -54689,10 +54675,10 @@
         <v>4</v>
       </c>
       <c r="C2766" t="s">
-        <v>5194</v>
+        <v>5192</v>
       </c>
       <c r="D2766" t="s">
-        <v>5195</v>
+        <v>5193</v>
       </c>
     </row>
     <row r="2767" spans="1:4">
@@ -54703,10 +54689,10 @@
         <v>4</v>
       </c>
       <c r="C2767" t="s">
-        <v>5196</v>
+        <v>5194</v>
       </c>
       <c r="D2767" t="s">
-        <v>5197</v>
+        <v>5195</v>
       </c>
     </row>
     <row r="2768" spans="1:4">
@@ -54717,10 +54703,10 @@
         <v>4</v>
       </c>
       <c r="C2768" t="s">
-        <v>5198</v>
+        <v>5196</v>
       </c>
       <c r="D2768" t="s">
-        <v>5199</v>
+        <v>5197</v>
       </c>
     </row>
     <row r="2769" spans="1:4">
@@ -54731,10 +54717,10 @@
         <v>4</v>
       </c>
       <c r="C2769" t="s">
-        <v>5200</v>
+        <v>5198</v>
       </c>
       <c r="D2769" t="s">
-        <v>5201</v>
+        <v>5199</v>
       </c>
     </row>
     <row r="2770" spans="1:4">
@@ -54773,11 +54759,17 @@
         <v>4</v>
       </c>
       <c r="C2772" t="s">
-        <v>5202</v>
+        <v>5200</v>
       </c>
       <c r="D2772" t="s">
-        <v>5203</v>
-      </c>
+        <v>5201</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:4">
+      <c r="A2773"/>
+      <c r="B2773"/>
+      <c r="C2773"/>
+      <c r="D2773"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/ro_RO.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/ro_RO.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5882">
   <si>
     <t>translation_group</t>
   </si>
@@ -10124,7 +10124,7 @@
     <t>Setări SEO</t>
   </si>
   <si>
-    <t>Fill in the fields for maximum results when finding your website in _x0003_search engines.</t>
+    <t>Fill in the fields for maximum results when finding your website in search engines.</t>
   </si>
   <si>
     <t>Completați câmpurile pentru rezultate maxime atunci când găsiți site-ul dvs. în motoarele de căutare.</t>
@@ -17080,6 +17080,601 @@
   </si>
   <si>
     <t>Mail providers</t>
+  </si>
+  <si>
+    <t>Welcome to Microweber</t>
+  </si>
+  <si>
+    <t>Bine ați venit la Microweber</t>
+  </si>
+  <si>
+    <t>Use Microweber to build your website, online shop or blog.</t>
+  </si>
+  <si>
+    <t>Folosiți Microweber pentru a vă construi site-ul, magazinul online sau blogul.</t>
+  </si>
+  <si>
+    <t>Create and edit content, sell online, manage orders and clients.</t>
+  </si>
+  <si>
+    <t>Creați și editați conținut, vindeți online, gestionați comenzile și clienții.</t>
+  </si>
+  <si>
+    <t>Remove</t>
+  </si>
+  <si>
+    <t>Elimina</t>
+  </si>
+  <si>
+    <t>Abandoned cart's</t>
+  </si>
+  <si>
+    <t>Căruța abandonată</t>
+  </si>
+  <si>
+    <t>You are using this template.</t>
+  </si>
+  <si>
+    <t>Folosiți acest șablon.</t>
+  </si>
+  <si>
+    <t>The change will affect only the current page.</t>
+  </si>
+  <si>
+    <t>Modificarea va afecta doar pagina curentă.</t>
+  </si>
+  <si>
+    <t>Allow multiple templates</t>
+  </si>
+  <si>
+    <t>Permiteți mai multe șabloane</t>
+  </si>
+  <si>
+    <t>If you allow multiple templates, you will be abble to use different templates when you create a new pages.</t>
+  </si>
+  <si>
+    <t>Dacă permiteți mai multe șabloane, veți putea folosi diferite șabloane atunci când creați o pagină nouă.</t>
+  </si>
+  <si>
+    <t>System e-mail website settings</t>
+  </si>
+  <si>
+    <t>Setările site-ului de e-mail ale sistemului</t>
+  </si>
+  <si>
+    <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
+  </si>
+  <si>
+    <t>Livrați mesaje legate de înregistrarea nouă, resetarea parolei și alte funcționalități ale sistemului.</t>
+  </si>
+  <si>
+    <t>From e-mail address</t>
+  </si>
+  <si>
+    <t>De la adresa de e-mail</t>
+  </si>
+  <si>
+    <t>Ex. Your Website Name</t>
+  </si>
+  <si>
+    <t>Ex. Numele site-ului dvs. web</t>
+  </si>
+  <si>
+    <t>General e-mail provider settings</t>
+  </si>
+  <si>
+    <t>Setări generale ale furnizorului de e-mail</t>
+  </si>
+  <si>
+    <t>Set up your email provider.</t>
+  </si>
+  <si>
+    <t>Configurați furnizorul de e-mail.</t>
+  </si>
+  <si>
+    <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
+  </si>
+  <si>
+    <t>Furnizorul general de e-mail va livra toate mesajele legate de site-ul web. Inclusiv mesaje de sistem și mesaje din formularul de contact.</t>
+  </si>
+  <si>
+    <t>Website Logo</t>
+  </si>
+  <si>
+    <t>Logo-ul site-ului web</t>
+  </si>
+  <si>
+    <t>Select an logo for your website.</t>
+  </si>
+  <si>
+    <t>Selectați o siglă pentru site-ul dvs. web.</t>
+  </si>
+  <si>
+    <t>Upload logo</t>
+  </si>
+  <si>
+    <t>Website Favicon</t>
+  </si>
+  <si>
+    <t>Site-ul Favicon</t>
+  </si>
+  <si>
+    <t>Changing default language..</t>
+  </si>
+  <si>
+    <t>Schimbarea limbii implicite ..</t>
+  </si>
+  <si>
+    <t>Clear cache..</t>
+  </si>
+  <si>
+    <t>Ștergeți memoria cache ..</t>
+  </si>
+  <si>
+    <t>Install Multilanguage Module</t>
+  </si>
+  <si>
+    <t>Instalați modulul multilingv</t>
+  </si>
+  <si>
+    <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
+  </si>
+  <si>
+    <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
+  </si>
+  <si>
+    <t>Înregistrarea utilizatorilor poate primi automat un e-mail automat de la dvs. Vedeți setările și postați-vă mesajele.</t>
+  </si>
+  <si>
+    <t>Send email on new user registration to admin users</t>
+  </si>
+  <si>
+    <t>Trimiteți e-mail la înregistrarea utilizatorilor noi utilizatorilor administratori</t>
+  </si>
+  <si>
+    <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
+  </si>
+  <si>
+    <t>Doriți ca administratorii să primească un e-mail când este înregistrat un nou utilizator?</t>
+  </si>
+  <si>
+    <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
+  </si>
+  <si>
+    <t>Microweber este un open source gratuit de drag and drop, care creează site-uri web și CMS. Este sub licență MIT și folosim cadrul Laravel PHP</t>
+  </si>
+  <si>
+    <t>A Slider</t>
+  </si>
+  <si>
+    <t>Un glisor</t>
+  </si>
+  <si>
+    <t>Shipping to address</t>
+  </si>
+  <si>
+    <t>Expediere la adresa</t>
+  </si>
+  <si>
+    <t>Pickup from address</t>
+  </si>
+  <si>
+    <t>Preluare de la adresă</t>
+  </si>
+  <si>
+    <t>Global settings</t>
+  </si>
+  <si>
+    <t>Setări globale</t>
+  </si>
+  <si>
+    <t>E-mail Integrations</t>
+  </si>
+  <si>
+    <t>Integrări prin e-mail</t>
+  </si>
+  <si>
+    <t>You don't have system e-mail and smtp setup.</t>
+  </si>
+  <si>
+    <t>Nu aveți configurare e-mail și smtp de sistem.</t>
+  </si>
+  <si>
+    <t>Setup your system settings here.</t>
+  </si>
+  <si>
+    <t>Configurați aici setările sistemului.</t>
+  </si>
+  <si>
+    <t>Global contact form settings</t>
+  </si>
+  <si>
+    <t>Setări globale ale formularului de contact</t>
+  </si>
+  <si>
+    <t>E-mail sending options</t>
+  </si>
+  <si>
+    <t>Opțiuni de trimitere a e-mailurilor</t>
+  </si>
+  <si>
+    <t>Global sender</t>
+  </si>
+  <si>
+    <t>Expeditor global</t>
+  </si>
+  <si>
+    <t>Use custom sender settings</t>
+  </si>
+  <si>
+    <t>Utilizați setările personalizate ale expeditorului</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the global contact forms.</t>
+  </si>
+  <si>
+    <t>Utilizați setările personalizate ale expeditorului pentru formularele de contact globale.</t>
+  </si>
+  <si>
+    <t>By default we will use website system e-mail settings.</t>
+  </si>
+  <si>
+    <t>În mod implicit, vom folosi setările de e-mail ale sistemului site-ului web.</t>
+  </si>
+  <si>
+    <t>You can change the system e-mail settings here.</t>
+  </si>
+  <si>
+    <t>Aici puteți schimba setările de e-mail ale sistemului.</t>
+  </si>
+  <si>
+    <t>Global Receivers</t>
+  </si>
+  <si>
+    <t>Receptoare globale</t>
+  </si>
+  <si>
+    <t>Send contact forms data to global receivers when is submited</t>
+  </si>
+  <si>
+    <t>Trimiteți datele formularelor de contact destinatarilor globali atunci când este trimis</t>
+  </si>
+  <si>
+    <t>To e-mail addresses</t>
+  </si>
+  <si>
+    <t>Pentru adrese de e-mail</t>
+  </si>
+  <si>
+    <t>E-mail address of the receivers seperated with coma.</t>
+  </si>
+  <si>
+    <t>Adresa de e-mail a receptorilor separați de comă.</t>
+  </si>
+  <si>
+    <t>Contact your hosting provider to enable PHP SOAP extension.</t>
+  </si>
+  <si>
+    <t>Contactați furnizorul de găzduire pentru a activa extensia SOAP PHP.</t>
+  </si>
+  <si>
+    <t>Elements</t>
+  </si>
+  <si>
+    <t>Elemente</t>
+  </si>
+  <si>
+    <t>2 months ago</t>
+  </si>
+  <si>
+    <t>2 luni în urmă</t>
+  </si>
+  <si>
+    <t>Remove logo</t>
+  </si>
+  <si>
+    <t>Eliminați sigla</t>
+  </si>
+  <si>
+    <t>Remove favicon</t>
+  </si>
+  <si>
+    <t>Eliminați faviconul</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>Personalizat</t>
+  </si>
+  <si>
+    <t>bxSlider</t>
+  </si>
+  <si>
+    <t>Schema.org</t>
+  </si>
+  <si>
+    <t>ProductsV2</t>
+  </si>
+  <si>
+    <t>Produse V2</t>
+  </si>
+  <si>
+    <t>Timeline</t>
+  </si>
+  <si>
+    <t>Cronologie</t>
+  </si>
+  <si>
+    <t>White label WHMCS</t>
+  </si>
+  <si>
+    <t>Etichetă albă WHMCS</t>
+  </si>
+  <si>
+    <t>Number of the visible testimonials</t>
+  </si>
+  <si>
+    <t>Module template has changed</t>
+  </si>
+  <si>
+    <t>Șablonul modulului s-a schimbat</t>
+  </si>
+  <si>
+    <t>Content versions</t>
+  </si>
+  <si>
+    <t>Versiuni de conținut</t>
+  </si>
+  <si>
+    <t>Clear Cache</t>
+  </si>
+  <si>
+    <t>Default layouts and elements</t>
+  </si>
+  <si>
+    <t>Aspecte și elemente implicite</t>
+  </si>
+  <si>
+    <t>Arrows List</t>
+  </si>
+  <si>
+    <t>Lista săgeților</t>
+  </si>
+  <si>
+    <t>Checked List</t>
+  </si>
+  <si>
+    <t>Lista verificată</t>
+  </si>
+  <si>
+    <t>Background Text</t>
+  </si>
+  <si>
+    <t>Text de fundal</t>
+  </si>
+  <si>
+    <t>Title with Text</t>
+  </si>
+  <si>
+    <t>Titlu cu text</t>
+  </si>
+  <si>
+    <t>Icon with Text</t>
+  </si>
+  <si>
+    <t>Pictogramă cu text</t>
+  </si>
+  <si>
+    <t>Two Text Columns</t>
+  </si>
+  <si>
+    <t>Două coloane de text</t>
+  </si>
+  <si>
+    <t>Two text columns with icon and title</t>
+  </si>
+  <si>
+    <t>Două coloane de text cu pictogramă și titlu</t>
+  </si>
+  <si>
+    <t>Image with Title and Text</t>
+  </si>
+  <si>
+    <t>Imagine cu titlu și text</t>
+  </si>
+  <si>
+    <t>Text with Image and Title</t>
+  </si>
+  <si>
+    <t>Text cu imagine și titlu</t>
+  </si>
+  <si>
+    <t>Text with Image</t>
+  </si>
+  <si>
+    <t>Enable comments</t>
+  </si>
+  <si>
+    <t>Activați comentariile</t>
+  </si>
+  <si>
+    <t>Captcha settings</t>
+  </si>
+  <si>
+    <t>Setări Captcha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setup your captcha preferences from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configurați preferințele captcha de la </t>
+  </si>
+  <si>
+    <t>Add / Edit fields of the form using the custom fields</t>
+  </si>
+  <si>
+    <t>Adăugați / Editați câmpurile formularului utilizând câmpurile personalizate</t>
+  </si>
+  <si>
+    <t>Current contact form settings</t>
+  </si>
+  <si>
+    <t>Setările curente ale formularului de contact</t>
+  </si>
+  <si>
+    <t>Contact form name</t>
+  </si>
+  <si>
+    <t>Numele formularului de contact</t>
+  </si>
+  <si>
+    <t>What is the name of this contact form?</t>
+  </si>
+  <si>
+    <t>Care este numele acestui formular de contact?</t>
+  </si>
+  <si>
+    <t>Receivers</t>
+  </si>
+  <si>
+    <t>Receptoare</t>
+  </si>
+  <si>
+    <t>Send contact form data to custom receivers when is submited</t>
+  </si>
+  <si>
+    <t>Trimiteți datele formularului de contact destinatarilor personalizați atunci când este trimis</t>
+  </si>
+  <si>
+    <t>Use custom receivers settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>Utilizați setări de receptoare personalizate pentru formularul de contact curent.</t>
+  </si>
+  <si>
+    <t>By default we will use contact form global settings.</t>
+  </si>
+  <si>
+    <t>În mod implicit, vom utiliza setările globale ale formularului de contact.</t>
+  </si>
+  <si>
+    <t>You can change the contact form global settings here.</t>
+  </si>
+  <si>
+    <t>Puteți modifica setările globale ale formularului de contact aici.</t>
+  </si>
+  <si>
+    <t>Auto respond message to user</t>
+  </si>
+  <si>
+    <t>Mesaj de răspuns automat către utilizator</t>
+  </si>
+  <si>
+    <t>Enable auto respond message to user</t>
+  </si>
+  <si>
+    <t>Activați mesajul de răspuns automat utilizatorului</t>
+  </si>
+  <si>
+    <t>Allow users to receive "Thank you emails after subscription."</t>
+  </si>
+  <si>
+    <t>Permiteți utilizatorilor să primească „E-mailuri de mulțumire după abonament”.</t>
+  </si>
+  <si>
+    <t>Auto respond subject</t>
+  </si>
+  <si>
+    <t>Auto responders allows you to set up automated replies to incoming email</t>
+  </si>
+  <si>
+    <t>Auto respond message</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail sent back to the user</t>
+  </si>
+  <si>
+    <t>Auto respond custom sender</t>
+  </si>
+  <si>
+    <t>Expeditor personalizat cu răspuns automat</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>Utilizați setările personalizate ale expeditorului pentru formularul de contact curent.</t>
+  </si>
+  <si>
+    <t>Auto respond from e-mail address</t>
+  </si>
+  <si>
+    <t>Răspuns automat de la adresa de e-mail</t>
+  </si>
+  <si>
+    <t>Auto respond from name</t>
+  </si>
+  <si>
+    <t>Răspuns automat de la nume</t>
+  </si>
+  <si>
+    <t>Auto respond reply to e-mail</t>
+  </si>
+  <si>
+    <t>Răspuns automat la e-mail</t>
+  </si>
+  <si>
+    <t>When the user receive the auto respond message they can response back to reply to email.</t>
+  </si>
+  <si>
+    <t>Când utilizatorul primește mesajul de răspuns automat, acesta poate răspunde înapoi pentru a răspunde la e-mail.</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail attachments</t>
+  </si>
+  <si>
+    <t>Atasamente de e-mail cu raspuns automat</t>
+  </si>
+  <si>
+    <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
+  </si>
+  <si>
+    <t>You don’t have any posts yet</t>
+  </si>
+  <si>
+    <t>Nu aveți încă postări</t>
+  </si>
+  <si>
+    <t>Create your first post right now.</t>
+  </si>
+  <si>
+    <t>Creați prima dvs. postare chiar acum.</t>
+  </si>
+  <si>
+    <t>Create a Post</t>
+  </si>
+  <si>
+    <t>Creați o postare</t>
+  </si>
+  <si>
+    <t>templates-new-world</t>
+  </si>
+  <si>
+    <t>How to write product descriptions that sell
+                                                    One of the best things you can do to make your store successful is invest some time in writing great product descriptions. You want to provide detailed yet concise information that will entice potential customers to buy.
+                                                    Think like a consumer
+                                                    Think about what you as a consumer would want to know, then include those features in your description. For clothes: materials and fit. For food: ingredients and how it was prepared. Bullets are your friends when listing
+                                                   features — try to
+                                                            limit each one to 5-8 words.</t>
+  </si>
+  <si>
+    <t>Cum să scrieți descrieri de produse care vând
+                                                    Unul dintre cele mai bune lucruri pe care le puteți face pentru ca magazinul dvs. să aibă succes este să investiți ceva timp în scrierea unor descrieri excelente de produse. Doriți să furnizați informații detaliate, dar concise, care să atragă potențialii clienți să cumpere.
+                                                    Gândiți-vă ca un consumator
+                                                    Gândiți-vă la ceea ce ați dori, în calitate de consumator, să știți, apoi includeți aceste caracteristici în descrierea dvs. Pentru haine: materiale și potrivire. Pentru alimente: ingrediente și modul în care a fost preparată. Gloanțele sunt prietenii tăi atunci când afișezi
+                                                   caracteristici - încearcă să
+                                                            limitezi fiecare la 5-8 cuvinte.</t>
   </si>
 </sst>
 </file>
@@ -17418,7 +18013,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E2959"/>
+  <dimension ref="A1:E3062"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -67726,6 +68321,1757 @@
         <v>3607</v>
       </c>
       <c r="E2959" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:5">
+      <c r="A2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2960" t="s">
+        <v>5687</v>
+      </c>
+      <c r="D2960" t="s">
+        <v>5688</v>
+      </c>
+      <c r="E2960" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:5">
+      <c r="A2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2961" t="s">
+        <v>5689</v>
+      </c>
+      <c r="D2961" t="s">
+        <v>5690</v>
+      </c>
+      <c r="E2961" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:5">
+      <c r="A2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2962" t="s">
+        <v>5691</v>
+      </c>
+      <c r="D2962" t="s">
+        <v>5692</v>
+      </c>
+      <c r="E2962" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:5">
+      <c r="A2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2963" t="s">
+        <v>5693</v>
+      </c>
+      <c r="D2963" t="s">
+        <v>5694</v>
+      </c>
+      <c r="E2963" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:5">
+      <c r="A2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2964" t="s">
+        <v>5695</v>
+      </c>
+      <c r="D2964" t="s">
+        <v>5696</v>
+      </c>
+      <c r="E2964" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:5">
+      <c r="A2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2965" t="s">
+        <v>5697</v>
+      </c>
+      <c r="D2965" t="s">
+        <v>5698</v>
+      </c>
+      <c r="E2965" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:5">
+      <c r="A2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2966" t="s">
+        <v>5699</v>
+      </c>
+      <c r="D2966" t="s">
+        <v>5700</v>
+      </c>
+      <c r="E2966" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:5">
+      <c r="A2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2967" t="s">
+        <v>5701</v>
+      </c>
+      <c r="D2967" t="s">
+        <v>5702</v>
+      </c>
+      <c r="E2967" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:5">
+      <c r="A2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2968" t="s">
+        <v>5703</v>
+      </c>
+      <c r="D2968" t="s">
+        <v>5704</v>
+      </c>
+      <c r="E2968" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:5">
+      <c r="A2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2969" t="s">
+        <v>5705</v>
+      </c>
+      <c r="D2969" t="s">
+        <v>5706</v>
+      </c>
+      <c r="E2969" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:5">
+      <c r="A2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2970" t="s">
+        <v>5707</v>
+      </c>
+      <c r="D2970" t="s">
+        <v>5708</v>
+      </c>
+      <c r="E2970" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:5">
+      <c r="A2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2971" t="s">
+        <v>5709</v>
+      </c>
+      <c r="D2971" t="s">
+        <v>5710</v>
+      </c>
+      <c r="E2971" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:5">
+      <c r="A2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2972" t="s">
+        <v>5711</v>
+      </c>
+      <c r="D2972" t="s">
+        <v>5712</v>
+      </c>
+      <c r="E2972" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:5">
+      <c r="A2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2973" t="s">
+        <v>5713</v>
+      </c>
+      <c r="D2973" t="s">
+        <v>5714</v>
+      </c>
+      <c r="E2973" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:5">
+      <c r="A2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2974" t="s">
+        <v>5715</v>
+      </c>
+      <c r="D2974" t="s">
+        <v>5716</v>
+      </c>
+      <c r="E2974" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:5">
+      <c r="A2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2975" t="s">
+        <v>5717</v>
+      </c>
+      <c r="D2975" t="s">
+        <v>5718</v>
+      </c>
+      <c r="E2975" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:5">
+      <c r="A2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2976" t="s">
+        <v>5719</v>
+      </c>
+      <c r="D2976" t="s">
+        <v>5720</v>
+      </c>
+      <c r="E2976" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:5">
+      <c r="A2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2977" t="s">
+        <v>5721</v>
+      </c>
+      <c r="D2977" t="s">
+        <v>5722</v>
+      </c>
+      <c r="E2977" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:5">
+      <c r="A2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2978" t="s">
+        <v>5723</v>
+      </c>
+      <c r="D2978" t="s">
+        <v>5053</v>
+      </c>
+      <c r="E2978" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:5">
+      <c r="A2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2979" t="s">
+        <v>5724</v>
+      </c>
+      <c r="D2979" t="s">
+        <v>5725</v>
+      </c>
+      <c r="E2979" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:5">
+      <c r="A2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2980" t="s">
+        <v>5726</v>
+      </c>
+      <c r="D2980" t="s">
+        <v>5727</v>
+      </c>
+      <c r="E2980" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2981" spans="1:5">
+      <c r="A2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2981" t="s">
+        <v>5728</v>
+      </c>
+      <c r="D2981" t="s">
+        <v>5729</v>
+      </c>
+      <c r="E2981" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:5">
+      <c r="A2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2982" t="s">
+        <v>5730</v>
+      </c>
+      <c r="D2982" t="s">
+        <v>5731</v>
+      </c>
+      <c r="E2982" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:5">
+      <c r="A2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2983" t="s">
+        <v>5732</v>
+      </c>
+      <c r="D2983" t="s">
+        <v>3819</v>
+      </c>
+      <c r="E2983" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2984" spans="1:5">
+      <c r="A2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2984" t="s">
+        <v>5733</v>
+      </c>
+      <c r="D2984" t="s">
+        <v>5734</v>
+      </c>
+      <c r="E2984" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2985" spans="1:5">
+      <c r="A2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2985" t="s">
+        <v>5735</v>
+      </c>
+      <c r="D2985" t="s">
+        <v>5736</v>
+      </c>
+      <c r="E2985" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2986" spans="1:5">
+      <c r="A2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2986" t="s">
+        <v>5737</v>
+      </c>
+      <c r="D2986" t="s">
+        <v>5738</v>
+      </c>
+      <c r="E2986" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2987" spans="1:5">
+      <c r="A2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2987" t="s">
+        <v>5739</v>
+      </c>
+      <c r="D2987" t="s">
+        <v>5740</v>
+      </c>
+      <c r="E2987" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2988" spans="1:5">
+      <c r="A2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2988" t="s">
+        <v>5741</v>
+      </c>
+      <c r="D2988" t="s">
+        <v>5742</v>
+      </c>
+      <c r="E2988" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2989" spans="1:5">
+      <c r="A2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2989" t="s">
+        <v>5743</v>
+      </c>
+      <c r="D2989" t="s">
+        <v>5744</v>
+      </c>
+      <c r="E2989" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2990" spans="1:5">
+      <c r="A2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2990" t="s">
+        <v>5745</v>
+      </c>
+      <c r="D2990" t="s">
+        <v>5746</v>
+      </c>
+      <c r="E2990" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2991" spans="1:5">
+      <c r="A2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2991" t="s">
+        <v>5747</v>
+      </c>
+      <c r="D2991" t="s">
+        <v>5748</v>
+      </c>
+      <c r="E2991" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2992" spans="1:5">
+      <c r="A2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2992" t="s">
+        <v>5749</v>
+      </c>
+      <c r="D2992" t="s">
+        <v>5750</v>
+      </c>
+      <c r="E2992" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2993" spans="1:5">
+      <c r="A2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2993" t="s">
+        <v>5751</v>
+      </c>
+      <c r="D2993" t="s">
+        <v>5752</v>
+      </c>
+      <c r="E2993" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:5">
+      <c r="A2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2994" t="s">
+        <v>5753</v>
+      </c>
+      <c r="D2994" t="s">
+        <v>5754</v>
+      </c>
+      <c r="E2994" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:5">
+      <c r="A2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2995" t="s">
+        <v>5755</v>
+      </c>
+      <c r="D2995" t="s">
+        <v>5756</v>
+      </c>
+      <c r="E2995" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2996" spans="1:5">
+      <c r="A2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2996" t="s">
+        <v>5757</v>
+      </c>
+      <c r="D2996" t="s">
+        <v>5758</v>
+      </c>
+      <c r="E2996" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2997" spans="1:5">
+      <c r="A2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2997" t="s">
+        <v>5759</v>
+      </c>
+      <c r="D2997" t="s">
+        <v>5760</v>
+      </c>
+      <c r="E2997" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2998" spans="1:5">
+      <c r="A2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2998" t="s">
+        <v>5761</v>
+      </c>
+      <c r="D2998" t="s">
+        <v>5762</v>
+      </c>
+      <c r="E2998" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2999" spans="1:5">
+      <c r="A2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2999" t="s">
+        <v>5763</v>
+      </c>
+      <c r="D2999" t="s">
+        <v>5764</v>
+      </c>
+      <c r="E2999" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3000" spans="1:5">
+      <c r="A3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3000" t="s">
+        <v>5765</v>
+      </c>
+      <c r="D3000" t="s">
+        <v>5766</v>
+      </c>
+      <c r="E3000" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3001" spans="1:5">
+      <c r="A3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3001" t="s">
+        <v>5767</v>
+      </c>
+      <c r="D3001" t="s">
+        <v>5768</v>
+      </c>
+      <c r="E3001" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3002" spans="1:5">
+      <c r="A3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3002" t="s">
+        <v>5769</v>
+      </c>
+      <c r="D3002" t="s">
+        <v>5770</v>
+      </c>
+      <c r="E3002" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3003" spans="1:5">
+      <c r="A3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3003" t="s">
+        <v>5771</v>
+      </c>
+      <c r="D3003" t="s">
+        <v>5772</v>
+      </c>
+      <c r="E3003" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3004" spans="1:5">
+      <c r="A3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3004" t="s">
+        <v>5773</v>
+      </c>
+      <c r="D3004" t="s">
+        <v>5774</v>
+      </c>
+      <c r="E3004" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3005" spans="1:5">
+      <c r="A3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3005" t="s">
+        <v>5775</v>
+      </c>
+      <c r="D3005" t="s">
+        <v>5776</v>
+      </c>
+      <c r="E3005" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3006" spans="1:5">
+      <c r="A3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3006" t="s">
+        <v>5777</v>
+      </c>
+      <c r="D3006" t="s">
+        <v>5778</v>
+      </c>
+      <c r="E3006" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3007" spans="1:5">
+      <c r="A3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3007" t="s">
+        <v>5779</v>
+      </c>
+      <c r="D3007" t="s">
+        <v>5780</v>
+      </c>
+      <c r="E3007" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3008" spans="1:5">
+      <c r="A3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3008" t="s">
+        <v>5781</v>
+      </c>
+      <c r="D3008" t="s">
+        <v>5782</v>
+      </c>
+      <c r="E3008" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3009" spans="1:5">
+      <c r="A3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3009" t="s">
+        <v>5783</v>
+      </c>
+      <c r="D3009" t="s">
+        <v>5784</v>
+      </c>
+      <c r="E3009" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3010" spans="1:5">
+      <c r="A3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3010" t="s">
+        <v>5785</v>
+      </c>
+      <c r="D3010" t="s">
+        <v>5786</v>
+      </c>
+      <c r="E3010" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3011" spans="1:5">
+      <c r="A3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3011" t="s">
+        <v>5787</v>
+      </c>
+      <c r="D3011" t="s">
+        <v>5788</v>
+      </c>
+      <c r="E3011" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3012" spans="1:5">
+      <c r="A3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3012" t="s">
+        <v>5789</v>
+      </c>
+      <c r="D3012" t="s">
+        <v>5789</v>
+      </c>
+      <c r="E3012" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3013" spans="1:5">
+      <c r="A3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3013" t="s">
+        <v>5790</v>
+      </c>
+      <c r="D3013" t="s">
+        <v>5790</v>
+      </c>
+      <c r="E3013" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3014" spans="1:5">
+      <c r="A3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3014" t="s">
+        <v>5791</v>
+      </c>
+      <c r="D3014" t="s">
+        <v>5792</v>
+      </c>
+      <c r="E3014" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3015" spans="1:5">
+      <c r="A3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3015" t="s">
+        <v>5793</v>
+      </c>
+      <c r="D3015" t="s">
+        <v>5794</v>
+      </c>
+      <c r="E3015" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3016" spans="1:5">
+      <c r="A3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3016" t="s">
+        <v>5795</v>
+      </c>
+      <c r="D3016" t="s">
+        <v>5796</v>
+      </c>
+      <c r="E3016" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3017" spans="1:5">
+      <c r="A3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3017" t="s">
+        <v>5797</v>
+      </c>
+      <c r="D3017" t="s">
+        <v>3306</v>
+      </c>
+      <c r="E3017" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3018" spans="1:5">
+      <c r="A3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3018" t="s">
+        <v>5798</v>
+      </c>
+      <c r="D3018" t="s">
+        <v>5799</v>
+      </c>
+      <c r="E3018" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3019" spans="1:5">
+      <c r="A3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3019" t="s">
+        <v>5800</v>
+      </c>
+      <c r="D3019" t="s">
+        <v>5801</v>
+      </c>
+      <c r="E3019" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3020" spans="1:5">
+      <c r="A3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3020" t="s">
+        <v>5802</v>
+      </c>
+      <c r="D3020" t="s">
+        <v>1554</v>
+      </c>
+      <c r="E3020" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3021" spans="1:5">
+      <c r="A3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3021" t="s">
+        <v>5803</v>
+      </c>
+      <c r="D3021" t="s">
+        <v>5804</v>
+      </c>
+      <c r="E3021" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3022" spans="1:5">
+      <c r="A3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3022" t="s">
+        <v>5805</v>
+      </c>
+      <c r="D3022" t="s">
+        <v>5806</v>
+      </c>
+      <c r="E3022" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3023" spans="1:5">
+      <c r="A3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3023" t="s">
+        <v>5807</v>
+      </c>
+      <c r="D3023" t="s">
+        <v>5808</v>
+      </c>
+      <c r="E3023" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3024" spans="1:5">
+      <c r="A3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3024" t="s">
+        <v>5809</v>
+      </c>
+      <c r="D3024" t="s">
+        <v>5810</v>
+      </c>
+      <c r="E3024" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3025" spans="1:5">
+      <c r="A3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3025" t="s">
+        <v>5811</v>
+      </c>
+      <c r="D3025" t="s">
+        <v>5812</v>
+      </c>
+      <c r="E3025" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3026" spans="1:5">
+      <c r="A3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3026" t="s">
+        <v>5813</v>
+      </c>
+      <c r="D3026" t="s">
+        <v>5814</v>
+      </c>
+      <c r="E3026" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3027" spans="1:5">
+      <c r="A3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3027" t="s">
+        <v>5815</v>
+      </c>
+      <c r="D3027" t="s">
+        <v>5816</v>
+      </c>
+      <c r="E3027" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3028" spans="1:5">
+      <c r="A3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3028" t="s">
+        <v>5817</v>
+      </c>
+      <c r="D3028" t="s">
+        <v>5818</v>
+      </c>
+      <c r="E3028" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3029" spans="1:5">
+      <c r="A3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3029" t="s">
+        <v>5819</v>
+      </c>
+      <c r="D3029" t="s">
+        <v>5820</v>
+      </c>
+      <c r="E3029" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3030" spans="1:5">
+      <c r="A3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3030" t="s">
+        <v>5821</v>
+      </c>
+      <c r="D3030" t="s">
+        <v>5822</v>
+      </c>
+      <c r="E3030" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3031" spans="1:5">
+      <c r="A3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3031" t="s">
+        <v>5823</v>
+      </c>
+      <c r="D3031" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E3031" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3032" spans="1:5">
+      <c r="A3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3032" t="s">
+        <v>5824</v>
+      </c>
+      <c r="D3032" t="s">
+        <v>5825</v>
+      </c>
+      <c r="E3032" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3033" spans="1:5">
+      <c r="A3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3033" t="s">
+        <v>5826</v>
+      </c>
+      <c r="D3033" t="s">
+        <v>5827</v>
+      </c>
+      <c r="E3033" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3034" spans="1:5">
+      <c r="A3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3034" t="s">
+        <v>5828</v>
+      </c>
+      <c r="D3034" t="s">
+        <v>5829</v>
+      </c>
+      <c r="E3034" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3035" spans="1:5">
+      <c r="A3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3035" t="s">
+        <v>5830</v>
+      </c>
+      <c r="D3035" t="s">
+        <v>5831</v>
+      </c>
+      <c r="E3035" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3036" spans="1:5">
+      <c r="A3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3036" t="s">
+        <v>5832</v>
+      </c>
+      <c r="D3036" t="s">
+        <v>5833</v>
+      </c>
+      <c r="E3036" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3037" spans="1:5">
+      <c r="A3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3037" t="s">
+        <v>5834</v>
+      </c>
+      <c r="D3037" t="s">
+        <v>5835</v>
+      </c>
+      <c r="E3037" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3038" spans="1:5">
+      <c r="A3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3038" t="s">
+        <v>5836</v>
+      </c>
+      <c r="D3038" t="s">
+        <v>5837</v>
+      </c>
+      <c r="E3038" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3039" spans="1:5">
+      <c r="A3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3039" t="s">
+        <v>5838</v>
+      </c>
+      <c r="D3039" t="s">
+        <v>5839</v>
+      </c>
+      <c r="E3039" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3040" spans="1:5">
+      <c r="A3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3040" t="s">
+        <v>5840</v>
+      </c>
+      <c r="D3040" t="s">
+        <v>5841</v>
+      </c>
+      <c r="E3040" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3041" spans="1:5">
+      <c r="A3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3041" t="s">
+        <v>5842</v>
+      </c>
+      <c r="D3041" t="s">
+        <v>5843</v>
+      </c>
+      <c r="E3041" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3042" spans="1:5">
+      <c r="A3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3042" t="s">
+        <v>5844</v>
+      </c>
+      <c r="D3042" t="s">
+        <v>5845</v>
+      </c>
+      <c r="E3042" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3043" spans="1:5">
+      <c r="A3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3043" t="s">
+        <v>5846</v>
+      </c>
+      <c r="D3043" t="s">
+        <v>5847</v>
+      </c>
+      <c r="E3043" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3044" spans="1:5">
+      <c r="A3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3044" t="s">
+        <v>5848</v>
+      </c>
+      <c r="D3044" t="s">
+        <v>5849</v>
+      </c>
+      <c r="E3044" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3045" spans="1:5">
+      <c r="A3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3045" t="s">
+        <v>5850</v>
+      </c>
+      <c r="D3045" t="s">
+        <v>5851</v>
+      </c>
+      <c r="E3045" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3046" spans="1:5">
+      <c r="A3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3046" t="s">
+        <v>5852</v>
+      </c>
+      <c r="D3046" t="s">
+        <v>5853</v>
+      </c>
+      <c r="E3046" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3047" spans="1:5">
+      <c r="A3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3047" t="s">
+        <v>5854</v>
+      </c>
+      <c r="D3047" t="s">
+        <v>1948</v>
+      </c>
+      <c r="E3047" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3048" spans="1:5">
+      <c r="A3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3048" t="s">
+        <v>5855</v>
+      </c>
+      <c r="D3048" t="s">
+        <v>3111</v>
+      </c>
+      <c r="E3048" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3049" spans="1:5">
+      <c r="A3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3049" t="s">
+        <v>5856</v>
+      </c>
+      <c r="D3049" t="s">
+        <v>803</v>
+      </c>
+      <c r="E3049" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3050" spans="1:5">
+      <c r="A3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3050" t="s">
+        <v>5857</v>
+      </c>
+      <c r="D3050" t="s">
+        <v>1746</v>
+      </c>
+      <c r="E3050" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3051" spans="1:5">
+      <c r="A3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3051" t="s">
+        <v>5858</v>
+      </c>
+      <c r="D3051" t="s">
+        <v>5859</v>
+      </c>
+      <c r="E3051" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3052" spans="1:5">
+      <c r="A3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3052" t="s">
+        <v>5860</v>
+      </c>
+      <c r="D3052" t="s">
+        <v>5861</v>
+      </c>
+      <c r="E3052" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3053" spans="1:5">
+      <c r="A3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3053" t="s">
+        <v>5862</v>
+      </c>
+      <c r="D3053" t="s">
+        <v>5863</v>
+      </c>
+      <c r="E3053" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3054" spans="1:5">
+      <c r="A3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3054" t="s">
+        <v>5864</v>
+      </c>
+      <c r="D3054" t="s">
+        <v>5865</v>
+      </c>
+      <c r="E3054" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3055" spans="1:5">
+      <c r="A3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3055" t="s">
+        <v>5866</v>
+      </c>
+      <c r="D3055" t="s">
+        <v>5867</v>
+      </c>
+      <c r="E3055" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3056" spans="1:5">
+      <c r="A3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3056" t="s">
+        <v>5868</v>
+      </c>
+      <c r="D3056" t="s">
+        <v>5869</v>
+      </c>
+      <c r="E3056" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3057" spans="1:5">
+      <c r="A3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3057" t="s">
+        <v>5870</v>
+      </c>
+      <c r="D3057" t="s">
+        <v>5871</v>
+      </c>
+      <c r="E3057" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3058" spans="1:5">
+      <c r="A3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3058" t="s">
+        <v>5872</v>
+      </c>
+      <c r="D3058" t="s">
+        <v>4205</v>
+      </c>
+      <c r="E3058" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3059" spans="1:5">
+      <c r="A3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3059" t="s">
+        <v>5873</v>
+      </c>
+      <c r="D3059" t="s">
+        <v>5874</v>
+      </c>
+      <c r="E3059" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3060" spans="1:5">
+      <c r="A3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3060" t="s">
+        <v>5875</v>
+      </c>
+      <c r="D3060" t="s">
+        <v>5876</v>
+      </c>
+      <c r="E3060" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3061" spans="1:5">
+      <c r="A3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3061" t="s">
+        <v>5877</v>
+      </c>
+      <c r="D3061" t="s">
+        <v>5878</v>
+      </c>
+      <c r="E3061" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3062" spans="1:5">
+      <c r="A3062" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3062" t="s">
+        <v>5879</v>
+      </c>
+      <c r="C3062" t="s">
+        <v>5880</v>
+      </c>
+      <c r="D3062" t="s">
+        <v>5881</v>
+      </c>
+      <c r="E3062" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/ro_RO.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/ro_RO.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6176">
   <si>
     <t>translation_group</t>
   </si>
@@ -17675,6 +17675,888 @@
                                                     Gândiți-vă la ceea ce ați dori, în calitate de consumator, să știți, apoi includeți aceste caracteristici în descrierea dvs. Pentru haine: materiale și potrivire. Pentru alimente: ingrediente și modul în care a fost preparată. Gloanțele sunt prietenii tăi atunci când afișezi
                                                    caracteristici - încearcă să
                                                             limitezi fiecare la 5-8 cuvinte.</t>
+  </si>
+  <si>
+    <t>Admin language</t>
+  </si>
+  <si>
+    <t>Limba admin</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>Limită</t>
+  </si>
+  <si>
+    <t>Code Editor</t>
+  </si>
+  <si>
+    <t>Editor de coduri</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>titles</t>
+  </si>
+  <si>
+    <t>titluri</t>
+  </si>
+  <si>
+    <t>Titles 1</t>
+  </si>
+  <si>
+    <t>Titluri 1</t>
+  </si>
+  <si>
+    <t>Titles 2</t>
+  </si>
+  <si>
+    <t>Titluri 2</t>
+  </si>
+  <si>
+    <t>Titles 3</t>
+  </si>
+  <si>
+    <t>Titluri 3</t>
+  </si>
+  <si>
+    <t>Titles 4</t>
+  </si>
+  <si>
+    <t>Titluri 4</t>
+  </si>
+  <si>
+    <t>Titles 5</t>
+  </si>
+  <si>
+    <t>Titluri 5</t>
+  </si>
+  <si>
+    <t>Titles 6</t>
+  </si>
+  <si>
+    <t>Titluri 6</t>
+  </si>
+  <si>
+    <t>Titles 7</t>
+  </si>
+  <si>
+    <t>Titluri 7</t>
+  </si>
+  <si>
+    <t>Titles 8</t>
+  </si>
+  <si>
+    <t>Titluri 8</t>
+  </si>
+  <si>
+    <t>text block</t>
+  </si>
+  <si>
+    <t>bloc de text</t>
+  </si>
+  <si>
+    <t>Text block 1</t>
+  </si>
+  <si>
+    <t>Blocul de text 1</t>
+  </si>
+  <si>
+    <t>Text block 2</t>
+  </si>
+  <si>
+    <t>Blocul de text 2</t>
+  </si>
+  <si>
+    <t>Text block 3</t>
+  </si>
+  <si>
+    <t>Blocul de text 3</t>
+  </si>
+  <si>
+    <t>Text block 4</t>
+  </si>
+  <si>
+    <t>Blocul de text 4</t>
+  </si>
+  <si>
+    <t>Text block 5</t>
+  </si>
+  <si>
+    <t>Blocul de text 5</t>
+  </si>
+  <si>
+    <t>Text block 6</t>
+  </si>
+  <si>
+    <t>Blocul de text 6</t>
+  </si>
+  <si>
+    <t>Text block 7</t>
+  </si>
+  <si>
+    <t>Blocul de text 7</t>
+  </si>
+  <si>
+    <t>Text block 8</t>
+  </si>
+  <si>
+    <t>Blocul de text 8</t>
+  </si>
+  <si>
+    <t>Text block 9</t>
+  </si>
+  <si>
+    <t>Blocul de text 9</t>
+  </si>
+  <si>
+    <t>Text block 10</t>
+  </si>
+  <si>
+    <t>Blocul de text 10</t>
+  </si>
+  <si>
+    <t>Text block 11</t>
+  </si>
+  <si>
+    <t>Blocul de text 11</t>
+  </si>
+  <si>
+    <t>Text block 12</t>
+  </si>
+  <si>
+    <t>Blocul de text 12</t>
+  </si>
+  <si>
+    <t>Text block 13</t>
+  </si>
+  <si>
+    <t>Blocul de text 13</t>
+  </si>
+  <si>
+    <t>Text block 14</t>
+  </si>
+  <si>
+    <t>Blocul de text 14</t>
+  </si>
+  <si>
+    <t>Text block 15</t>
+  </si>
+  <si>
+    <t>Blocul de text 15</t>
+  </si>
+  <si>
+    <t>features</t>
+  </si>
+  <si>
+    <t>Features 1</t>
+  </si>
+  <si>
+    <t>Caracteristici 1</t>
+  </si>
+  <si>
+    <t>Features 2</t>
+  </si>
+  <si>
+    <t>Caracteristici 2</t>
+  </si>
+  <si>
+    <t>Features 3</t>
+  </si>
+  <si>
+    <t>Caracteristici 3</t>
+  </si>
+  <si>
+    <t>Features 4</t>
+  </si>
+  <si>
+    <t>Caracteristici 4</t>
+  </si>
+  <si>
+    <t>grids</t>
+  </si>
+  <si>
+    <t>grile</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>meniul</t>
+  </si>
+  <si>
+    <t>Menu - skin-1</t>
+  </si>
+  <si>
+    <t>Meniu - skin-1</t>
+  </si>
+  <si>
+    <t>Menu - skin-2</t>
+  </si>
+  <si>
+    <t>Meniu - skin-2</t>
+  </si>
+  <si>
+    <t>Menu - skin-3</t>
+  </si>
+  <si>
+    <t>Meniu - skin-3</t>
+  </si>
+  <si>
+    <t>Menu - skin-4</t>
+  </si>
+  <si>
+    <t>Meniu - skin-4</t>
+  </si>
+  <si>
+    <t>Menu - skin-5</t>
+  </si>
+  <si>
+    <t>Meniu - skin-5</t>
+  </si>
+  <si>
+    <t>footers</t>
+  </si>
+  <si>
+    <t>subsolurile</t>
+  </si>
+  <si>
+    <t>Footers 1</t>
+  </si>
+  <si>
+    <t>Subsolurile 1</t>
+  </si>
+  <si>
+    <t>Footers 2</t>
+  </si>
+  <si>
+    <t>Subsolurile 2</t>
+  </si>
+  <si>
+    <t>Footers 3</t>
+  </si>
+  <si>
+    <t>Subsolurile 3</t>
+  </si>
+  <si>
+    <t>Footers 4</t>
+  </si>
+  <si>
+    <t>Subsolurile 4</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>alte</t>
+  </si>
+  <si>
+    <t>jumbotron</t>
+  </si>
+  <si>
+    <t>Jumbotron 1</t>
+  </si>
+  <si>
+    <t>pricing</t>
+  </si>
+  <si>
+    <t>stabilirea prețurilor</t>
+  </si>
+  <si>
+    <t>Pricing 1</t>
+  </si>
+  <si>
+    <t>Preț 1</t>
+  </si>
+  <si>
+    <t>Default layouts</t>
+  </si>
+  <si>
+    <t>Aspecte implicite</t>
+  </si>
+  <si>
+    <t>No Content Here</t>
+  </si>
+  <si>
+    <t>Nu există conținut aici</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>Câmpurile personalizate sunt salvate</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>Câmpuri existente</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>Alegeți din câmpurile existente de mai jos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adăugați câmpuri noi</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>Adăugați un câmp personalizat nou din lista de mai jos</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>Câmpurile tale</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>Lista câmpurilor personalizate adăugate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repeat vertically </t>
+  </si>
+  <si>
+    <t xml:space="preserve">repeta pe verticala </t>
+  </si>
+  <si>
+    <t>Font Family</t>
+  </si>
+  <si>
+    <t>Familie de fonturi</t>
+  </si>
+  <si>
+    <t>Overlay</t>
+  </si>
+  <si>
+    <t>Acoperire</t>
+  </si>
+  <si>
+    <t>Blend mode</t>
+  </si>
+  <si>
+    <t>Modul de amestecare</t>
+  </si>
+  <si>
+    <t>Container</t>
+  </si>
+  <si>
+    <t>Container type</t>
+  </si>
+  <si>
+    <t>Tip container</t>
+  </si>
+  <si>
+    <t>Animations</t>
+  </si>
+  <si>
+    <t>Animații</t>
+  </si>
+  <si>
+    <t>Reloading styles</t>
+  </si>
+  <si>
+    <t>Reîncărcarea stilurilor</t>
+  </si>
+  <si>
+    <t>Links to</t>
+  </si>
+  <si>
+    <t>Link-uri către</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>Previzualizare pachet</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Utilizare</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Reorder</t>
+  </si>
+  <si>
+    <t>Reordonați</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Sistem</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>Redirecționare browser</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Integrare</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>Updater autonom</t>
+  </si>
+  <si>
+    <t>You need license key to install this package</t>
+  </si>
+  <si>
+    <t>Aveți nevoie de cheia de licență pentru a instala acest pachet</t>
+  </si>
+  <si>
+    <t>This package is premium and you must have a license key to install it</t>
+  </si>
+  <si>
+    <t>Acest pachet este premium și trebuie să aveți o cheie de licență pentru a-l instala</t>
+  </si>
+  <si>
+    <t>You need license key</t>
+  </si>
+  <si>
+    <t>Ai nevoie de cheie de licență</t>
+  </si>
+  <si>
+    <t>License activated</t>
+  </si>
+  <si>
+    <t>Licență activată</t>
+  </si>
+  <si>
+    <t>Reloading page</t>
+  </si>
+  <si>
+    <t>Se reîncarcă pagina</t>
+  </si>
+  <si>
+    <t>License not activated</t>
+  </si>
+  <si>
+    <t>Licența nu este activată</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>System updates</t>
+  </si>
+  <si>
+    <t>Actualizari de sistem</t>
+  </si>
+  <si>
+    <t>Check for system updates</t>
+  </si>
+  <si>
+    <t>Verificați actualizările de sistem</t>
+  </si>
+  <si>
+    <t>Back to list</t>
+  </si>
+  <si>
+    <t>Înapoi la listă</t>
+  </si>
+  <si>
+    <t>The category must have a name</t>
+  </si>
+  <si>
+    <t>Categoria trebuie să aibă un nume</t>
+  </si>
+  <si>
+    <t>Is category hidden?</t>
+  </si>
+  <si>
+    <t>Este categoria ascunsă?</t>
+  </si>
+  <si>
+    <t>If you set this to YES this category will be hidden from the website</t>
+  </si>
+  <si>
+    <t>Dacă setați acest lucru la DA, această categorie va fi ascunsă de pe site</t>
+  </si>
+  <si>
+    <t>template-big</t>
+  </si>
+  <si>
+    <t>Mentioning</t>
+  </si>
+  <si>
+    <t>Menționând</t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>Coșul tău este gol.</t>
+  </si>
+  <si>
+    <t>Results found</t>
+  </si>
+  <si>
+    <t>Rezultate găsite</t>
+  </si>
+  <si>
+    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
+  </si>
+  <si>
+    <t>Dacă alegeți Procentul din câmpul de selectare, acesta va fi calculat automat din Prețul și prețul de ofertă al produsului.</t>
+  </si>
+  <si>
+    <t>أضف منتج</t>
+  </si>
+  <si>
+    <t>validation</t>
+  </si>
+  <si>
+    <t>custom.multilanguage.title.en_US.required</t>
+  </si>
+  <si>
+    <t>values.multilanguage.title.en_US.</t>
+  </si>
+  <si>
+    <t>تحرير المنتج</t>
+  </si>
+  <si>
+    <t>iuiuui</t>
+  </si>
+  <si>
+    <t>Proceed to Checkout</t>
+  </si>
+  <si>
+    <t>Finalizează cumpărăturile</t>
+  </si>
+  <si>
+    <t>تحرير آخر</t>
+  </si>
+  <si>
+    <t>Displaying</t>
+  </si>
+  <si>
+    <t>Afișarea</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>result(s)</t>
+  </si>
+  <si>
+    <t>rezultat(e)</t>
+  </si>
+  <si>
+    <t>Page Title - Right Breadcrumb</t>
+  </si>
+  <si>
+    <t>Titlul paginii - Pesmet dreapta</t>
+  </si>
+  <si>
+    <t>Page Title - Left Breadcrumb</t>
+  </si>
+  <si>
+    <t>Titlul paginii - Pesmet stânga</t>
+  </si>
+  <si>
+    <t>Terms of use</t>
+  </si>
+  <si>
+    <t>Termeni de utilizare</t>
+  </si>
+  <si>
+    <t>Delivery and returns</t>
+  </si>
+  <si>
+    <t>Livrare si retur</t>
+  </si>
+  <si>
+    <t>Shipping information</t>
+  </si>
+  <si>
+    <t>Informații despre livrare</t>
+  </si>
+  <si>
+    <t>About 1</t>
+  </si>
+  <si>
+    <t>Aproximativ 1</t>
+  </si>
+  <si>
+    <t>About 2</t>
+  </si>
+  <si>
+    <t>Cam 2</t>
+  </si>
+  <si>
+    <t>About 3</t>
+  </si>
+  <si>
+    <t>Cam 3</t>
+  </si>
+  <si>
+    <t>Home 1</t>
+  </si>
+  <si>
+    <t>casa 1</t>
+  </si>
+  <si>
+    <t>Home 2</t>
+  </si>
+  <si>
+    <t>Acasă 2</t>
+  </si>
+  <si>
+    <t>You must click the apply template button to change your template</t>
+  </si>
+  <si>
+    <t>Trebuie să faceți clic pe butonul Aplicați șablon pentru a vă schimba șablonul</t>
+  </si>
+  <si>
+    <t>Search by criteria</t>
+  </si>
+  <si>
+    <t>Cauta dupa criterii</t>
+  </si>
+  <si>
+    <t>Order ID</t>
+  </si>
+  <si>
+    <t>Date from</t>
+  </si>
+  <si>
+    <t>Data din</t>
+  </si>
+  <si>
+    <t>Set the orders from date</t>
+  </si>
+  <si>
+    <t>Setați comenzile de la data</t>
+  </si>
+  <si>
+    <t>Date to</t>
+  </si>
+  <si>
+    <t>Data la</t>
+  </si>
+  <si>
+    <t>Set the orders to date</t>
+  </si>
+  <si>
+    <t>Setați comenzile la zi</t>
+  </si>
+  <si>
+    <t>Order amount from</t>
+  </si>
+  <si>
+    <t>Suma comanda de la</t>
+  </si>
+  <si>
+    <t>Show the order with minimum amount</t>
+  </si>
+  <si>
+    <t>Afișați comanda cu suma minimă</t>
+  </si>
+  <si>
+    <t>Order amount to</t>
+  </si>
+  <si>
+    <t>Valoarea comenzii la</t>
+  </si>
+  <si>
+    <t>Show the order with maximum amount</t>
+  </si>
+  <si>
+    <t>Afișați comanda cu suma maximă</t>
+  </si>
+  <si>
+    <t>Search by products...</t>
+  </si>
+  <si>
+    <t>Cauta dupa produse...</t>
+  </si>
+  <si>
+    <t>Search by products</t>
+  </si>
+  <si>
+    <t>Cauta dupa produse</t>
+  </si>
+  <si>
+    <t>Payment Status</t>
+  </si>
+  <si>
+    <t>Starea plății</t>
+  </si>
+  <si>
+    <t>Free search by phone, name, email etc...</t>
+  </si>
+  <si>
+    <t>Căutare gratuită după telefon, nume, e-mail etc...</t>
+  </si>
+  <si>
+    <t>Submit this criteria</t>
+  </si>
+  <si>
+    <t>Trimiteți acest criteriu</t>
+  </si>
+  <si>
+    <t>Reset filter</t>
+  </si>
+  <si>
+    <t>Resetați filtrul</t>
+  </si>
+  <si>
+    <t>Export all</t>
+  </si>
+  <si>
+    <t>Exportați tot</t>
+  </si>
+  <si>
+    <t>Select sorting</t>
+  </si>
+  <si>
+    <t>Selectați sortarea</t>
+  </si>
+  <si>
+    <t>Order date</t>
+  </si>
+  <si>
+    <t>Data comandă</t>
+  </si>
+  <si>
+    <t>[New &gt; Old]</t>
+  </si>
+  <si>
+    <t>[Nou &gt; Vechi]</t>
+  </si>
+  <si>
+    <t>[Old &gt; New]</t>
+  </si>
+  <si>
+    <t>[Vechi &gt; Nou]</t>
+  </si>
+  <si>
+    <t>[High &gt; Low]</t>
+  </si>
+  <si>
+    <t>[Ridicat &gt; Scăzut]</t>
+  </si>
+  <si>
+    <t>[Low &gt; High]</t>
+  </si>
+  <si>
+    <t>[Scăzut &gt; Ridicat]</t>
+  </si>
+  <si>
+    <t>Order completed</t>
+  </si>
+  <si>
+    <t>comandă finalizată</t>
+  </si>
+  <si>
+    <t>translations from the multilnaguage module have been found in your database.</t>
+  </si>
+  <si>
+    <t>traduceri din modulul multilingv au fost găsite în baza dvs. de date.</t>
+  </si>
+  <si>
+    <t>Warning! Changing the default language can break translations on your site.</t>
+  </si>
+  <si>
+    <t>Avertizare! Schimbarea limbii implicite poate întrerupe traducerile de pe site-ul dvs.</t>
+  </si>
+  <si>
+    <t>Are you sure want to continue?</t>
+  </si>
+  <si>
+    <t>Sigur vrei să continui?</t>
+  </si>
+  <si>
+    <t>Warning! The changing default language maybe will break your site.</t>
+  </si>
+  <si>
+    <t>Avertizare! Schimbarea limbii implicite poate distruge site-ul dvs.</t>
+  </si>
+  <si>
+    <t>Shipping details</t>
+  </si>
+  <si>
+    <t>Detalii de livrare</t>
+  </si>
+  <si>
+    <t>Shipping type</t>
+  </si>
+  <si>
+    <t>Tip de livrare</t>
+  </si>
+  <si>
+    <t>the order is not completed yet</t>
+  </si>
+  <si>
+    <t>comanda nu este încă finalizată</t>
+  </si>
+  <si>
+    <t>the order is completed</t>
+  </si>
+  <si>
+    <t>comanda este finalizată</t>
+  </si>
+  <si>
+    <t>Created at</t>
+  </si>
+  <si>
+    <t>Creat la</t>
+  </si>
+  <si>
+    <t>Updated at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick view </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vizualizare rapidă </t>
+  </si>
+  <si>
+    <t>Replace language values</t>
+  </si>
+  <si>
+    <t>Înlocuiți valorile limbii</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>Traducerile sunt importate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traducerile nu au fost găsite în baza de date. Doriți să importați traduceri? </t>
   </si>
 </sst>
 </file>
@@ -17698,10 +18580,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -17712,7 +18591,7 @@
   </cellStyleXfs>
   <cellXfs count="1">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -18013,7 +18892,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3062"/>
+  <dimension ref="A1:E3217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -70075,8 +70954,2642 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3063" spans="1:5">
+      <c r="A3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3063" t="s">
+        <v>5882</v>
+      </c>
+      <c r="D3063" t="s">
+        <v>5883</v>
+      </c>
+      <c r="E3063" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3064" spans="1:5">
+      <c r="A3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3064" t="s">
+        <v>5884</v>
+      </c>
+      <c r="D3064" t="s">
+        <v>5885</v>
+      </c>
+      <c r="E3064" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3065" spans="1:5">
+      <c r="A3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3065" t="s">
+        <v>5886</v>
+      </c>
+      <c r="D3065" t="s">
+        <v>5887</v>
+      </c>
+      <c r="E3065" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3066" spans="1:5">
+      <c r="A3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3066" t="s">
+        <v>5888</v>
+      </c>
+      <c r="D3066" t="s">
+        <v>5888</v>
+      </c>
+      <c r="E3066" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3067" spans="1:5">
+      <c r="A3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3067" t="s">
+        <v>5889</v>
+      </c>
+      <c r="D3067" t="s">
+        <v>5890</v>
+      </c>
+      <c r="E3067" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3068" spans="1:5">
+      <c r="A3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3068" t="s">
+        <v>5891</v>
+      </c>
+      <c r="D3068" t="s">
+        <v>5892</v>
+      </c>
+      <c r="E3068" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3069" spans="1:5">
+      <c r="A3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3069" t="s">
+        <v>5893</v>
+      </c>
+      <c r="D3069" t="s">
+        <v>5894</v>
+      </c>
+      <c r="E3069" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3070" spans="1:5">
+      <c r="A3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3070" t="s">
+        <v>5895</v>
+      </c>
+      <c r="D3070" t="s">
+        <v>5896</v>
+      </c>
+      <c r="E3070" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3071" spans="1:5">
+      <c r="A3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3071" t="s">
+        <v>5897</v>
+      </c>
+      <c r="D3071" t="s">
+        <v>5898</v>
+      </c>
+      <c r="E3071" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3072" spans="1:5">
+      <c r="A3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3072" t="s">
+        <v>5899</v>
+      </c>
+      <c r="D3072" t="s">
+        <v>5900</v>
+      </c>
+      <c r="E3072" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3073" spans="1:5">
+      <c r="A3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3073" t="s">
+        <v>5901</v>
+      </c>
+      <c r="D3073" t="s">
+        <v>5902</v>
+      </c>
+      <c r="E3073" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3074" spans="1:5">
+      <c r="A3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3074" t="s">
+        <v>5903</v>
+      </c>
+      <c r="D3074" t="s">
+        <v>5904</v>
+      </c>
+      <c r="E3074" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3075" spans="1:5">
+      <c r="A3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3075" t="s">
+        <v>5905</v>
+      </c>
+      <c r="D3075" t="s">
+        <v>5906</v>
+      </c>
+      <c r="E3075" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3076" spans="1:5">
+      <c r="A3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3076" t="s">
+        <v>5907</v>
+      </c>
+      <c r="D3076" t="s">
+        <v>5908</v>
+      </c>
+      <c r="E3076" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3077" spans="1:5">
+      <c r="A3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3077" t="s">
+        <v>5909</v>
+      </c>
+      <c r="D3077" t="s">
+        <v>5910</v>
+      </c>
+      <c r="E3077" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3078" spans="1:5">
+      <c r="A3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3078" t="s">
+        <v>5911</v>
+      </c>
+      <c r="D3078" t="s">
+        <v>5912</v>
+      </c>
+      <c r="E3078" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3079" spans="1:5">
+      <c r="A3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3079" t="s">
+        <v>5913</v>
+      </c>
+      <c r="D3079" t="s">
+        <v>5914</v>
+      </c>
+      <c r="E3079" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3080" spans="1:5">
+      <c r="A3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3080" t="s">
+        <v>5915</v>
+      </c>
+      <c r="D3080" t="s">
+        <v>5916</v>
+      </c>
+      <c r="E3080" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3081" spans="1:5">
+      <c r="A3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3081" t="s">
+        <v>5917</v>
+      </c>
+      <c r="D3081" t="s">
+        <v>5918</v>
+      </c>
+      <c r="E3081" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3082" spans="1:5">
+      <c r="A3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3082" t="s">
+        <v>5919</v>
+      </c>
+      <c r="D3082" t="s">
+        <v>5920</v>
+      </c>
+      <c r="E3082" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3083" spans="1:5">
+      <c r="A3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3083" t="s">
+        <v>5921</v>
+      </c>
+      <c r="D3083" t="s">
+        <v>5922</v>
+      </c>
+      <c r="E3083" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3084" spans="1:5">
+      <c r="A3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3084" t="s">
+        <v>5923</v>
+      </c>
+      <c r="D3084" t="s">
+        <v>5924</v>
+      </c>
+      <c r="E3084" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3085" spans="1:5">
+      <c r="A3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3085" t="s">
+        <v>5925</v>
+      </c>
+      <c r="D3085" t="s">
+        <v>5926</v>
+      </c>
+      <c r="E3085" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3086" spans="1:5">
+      <c r="A3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3086" t="s">
+        <v>5927</v>
+      </c>
+      <c r="D3086" t="s">
+        <v>5928</v>
+      </c>
+      <c r="E3086" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3087" spans="1:5">
+      <c r="A3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3087" t="s">
+        <v>5929</v>
+      </c>
+      <c r="D3087" t="s">
+        <v>5930</v>
+      </c>
+      <c r="E3087" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3088" spans="1:5">
+      <c r="A3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3088" t="s">
+        <v>5931</v>
+      </c>
+      <c r="D3088" t="s">
+        <v>5932</v>
+      </c>
+      <c r="E3088" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3089" spans="1:5">
+      <c r="A3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3089" t="s">
+        <v>5933</v>
+      </c>
+      <c r="D3089" t="s">
+        <v>5934</v>
+      </c>
+      <c r="E3089" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3090" spans="1:5">
+      <c r="A3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3090" t="s">
+        <v>5935</v>
+      </c>
+      <c r="D3090" t="s">
+        <v>5936</v>
+      </c>
+      <c r="E3090" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3091" spans="1:5">
+      <c r="A3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3091" t="s">
+        <v>5937</v>
+      </c>
+      <c r="D3091" t="s">
+        <v>5938</v>
+      </c>
+      <c r="E3091" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3092" spans="1:5">
+      <c r="A3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3092" t="s">
+        <v>5939</v>
+      </c>
+      <c r="D3092" t="s">
+        <v>1897</v>
+      </c>
+      <c r="E3092" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3093" spans="1:5">
+      <c r="A3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3093" t="s">
+        <v>5940</v>
+      </c>
+      <c r="D3093" t="s">
+        <v>5941</v>
+      </c>
+      <c r="E3093" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3094" spans="1:5">
+      <c r="A3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3094" t="s">
+        <v>5942</v>
+      </c>
+      <c r="D3094" t="s">
+        <v>5943</v>
+      </c>
+      <c r="E3094" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3095" spans="1:5">
+      <c r="A3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3095" t="s">
+        <v>5944</v>
+      </c>
+      <c r="D3095" t="s">
+        <v>5945</v>
+      </c>
+      <c r="E3095" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3096" spans="1:5">
+      <c r="A3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3096" t="s">
+        <v>5946</v>
+      </c>
+      <c r="D3096" t="s">
+        <v>5947</v>
+      </c>
+      <c r="E3096" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3097" spans="1:5">
+      <c r="A3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3097" t="s">
+        <v>5948</v>
+      </c>
+      <c r="D3097" t="s">
+        <v>5949</v>
+      </c>
+      <c r="E3097" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3098" spans="1:5">
+      <c r="A3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3098" t="s">
+        <v>5950</v>
+      </c>
+      <c r="D3098" t="s">
+        <v>5951</v>
+      </c>
+      <c r="E3098" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3099" spans="1:5">
+      <c r="A3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3099" t="s">
+        <v>5952</v>
+      </c>
+      <c r="D3099" t="s">
+        <v>5953</v>
+      </c>
+      <c r="E3099" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3100" spans="1:5">
+      <c r="A3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3100" t="s">
+        <v>5954</v>
+      </c>
+      <c r="D3100" t="s">
+        <v>5955</v>
+      </c>
+      <c r="E3100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3101" spans="1:5">
+      <c r="A3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3101" t="s">
+        <v>5956</v>
+      </c>
+      <c r="D3101" t="s">
+        <v>5957</v>
+      </c>
+      <c r="E3101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3102" spans="1:5">
+      <c r="A3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3102" t="s">
+        <v>5958</v>
+      </c>
+      <c r="D3102" t="s">
+        <v>5959</v>
+      </c>
+      <c r="E3102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3103" spans="1:5">
+      <c r="A3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3103" t="s">
+        <v>5960</v>
+      </c>
+      <c r="D3103" t="s">
+        <v>5961</v>
+      </c>
+      <c r="E3103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3104" spans="1:5">
+      <c r="A3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3104" t="s">
+        <v>5962</v>
+      </c>
+      <c r="D3104" t="s">
+        <v>5963</v>
+      </c>
+      <c r="E3104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3105" spans="1:5">
+      <c r="A3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3105" t="s">
+        <v>5964</v>
+      </c>
+      <c r="D3105" t="s">
+        <v>5965</v>
+      </c>
+      <c r="E3105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3106" spans="1:5">
+      <c r="A3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3106" t="s">
+        <v>5966</v>
+      </c>
+      <c r="D3106" t="s">
+        <v>5967</v>
+      </c>
+      <c r="E3106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3107" spans="1:5">
+      <c r="A3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3107" t="s">
+        <v>5968</v>
+      </c>
+      <c r="D3107" t="s">
+        <v>5969</v>
+      </c>
+      <c r="E3107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3108" spans="1:5">
+      <c r="A3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3108" t="s">
+        <v>5970</v>
+      </c>
+      <c r="D3108" t="s">
+        <v>5971</v>
+      </c>
+      <c r="E3108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3109" spans="1:5">
+      <c r="A3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3109" t="s">
+        <v>5972</v>
+      </c>
+      <c r="D3109" t="s">
+        <v>5973</v>
+      </c>
+      <c r="E3109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3110" spans="1:5">
+      <c r="A3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3110">
+        <v>404</v>
+      </c>
+      <c r="D3110">
+        <v>404</v>
+      </c>
+      <c r="E3110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3111" spans="1:5">
+      <c r="A3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3111" t="s">
+        <v>5974</v>
+      </c>
+      <c r="D3111" t="s">
+        <v>5974</v>
+      </c>
+      <c r="E3111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3112" spans="1:5">
+      <c r="A3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3112" t="s">
+        <v>5975</v>
+      </c>
+      <c r="D3112" t="s">
+        <v>5975</v>
+      </c>
+      <c r="E3112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3113" spans="1:5">
+      <c r="A3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3113" t="s">
+        <v>5976</v>
+      </c>
+      <c r="D3113" t="s">
+        <v>5977</v>
+      </c>
+      <c r="E3113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3114" spans="1:5">
+      <c r="A3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3114" t="s">
+        <v>5978</v>
+      </c>
+      <c r="D3114" t="s">
+        <v>5979</v>
+      </c>
+      <c r="E3114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3115" spans="1:5">
+      <c r="A3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3115" t="s">
+        <v>5980</v>
+      </c>
+      <c r="D3115" t="s">
+        <v>5981</v>
+      </c>
+      <c r="E3115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3116" spans="1:5">
+      <c r="A3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3116" t="s">
+        <v>5982</v>
+      </c>
+      <c r="D3116" t="s">
+        <v>5983</v>
+      </c>
+      <c r="E3116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3117" spans="1:5">
+      <c r="A3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3117" t="s">
+        <v>5984</v>
+      </c>
+      <c r="D3117" t="s">
+        <v>5985</v>
+      </c>
+      <c r="E3117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3118" spans="1:5">
+      <c r="A3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3118" t="s">
+        <v>5986</v>
+      </c>
+      <c r="D3118" t="s">
+        <v>5987</v>
+      </c>
+      <c r="E3118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3119" spans="1:5">
+      <c r="A3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3119" t="s">
+        <v>5988</v>
+      </c>
+      <c r="D3119" t="s">
+        <v>5989</v>
+      </c>
+      <c r="E3119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3120" spans="1:5">
+      <c r="A3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3120" t="s">
+        <v>5990</v>
+      </c>
+      <c r="D3120" t="s">
+        <v>5991</v>
+      </c>
+      <c r="E3120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3121" spans="1:5">
+      <c r="A3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3121" t="s">
+        <v>5992</v>
+      </c>
+      <c r="D3121" t="s">
+        <v>5993</v>
+      </c>
+      <c r="E3121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3122" spans="1:5">
+      <c r="A3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3122" t="s">
+        <v>5994</v>
+      </c>
+      <c r="D3122" t="s">
+        <v>5995</v>
+      </c>
+      <c r="E3122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3123" spans="1:5">
+      <c r="A3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3123" t="s">
+        <v>5996</v>
+      </c>
+      <c r="D3123" t="s">
+        <v>5997</v>
+      </c>
+      <c r="E3123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3124" spans="1:5">
+      <c r="A3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3124" t="s">
+        <v>5998</v>
+      </c>
+      <c r="D3124" t="s">
+        <v>5999</v>
+      </c>
+      <c r="E3124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3125" spans="1:5">
+      <c r="A3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3125" t="s">
+        <v>6000</v>
+      </c>
+      <c r="D3125" t="s">
+        <v>6001</v>
+      </c>
+      <c r="E3125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3126" spans="1:5">
+      <c r="A3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3126" t="s">
+        <v>6002</v>
+      </c>
+      <c r="D3126" t="s">
+        <v>6003</v>
+      </c>
+      <c r="E3126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3127" spans="1:5">
+      <c r="A3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3127" t="s">
+        <v>6004</v>
+      </c>
+      <c r="D3127" t="s">
+        <v>6005</v>
+      </c>
+      <c r="E3127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3128" spans="1:5">
+      <c r="A3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3128" t="s">
+        <v>6006</v>
+      </c>
+      <c r="D3128" t="s">
+        <v>6006</v>
+      </c>
+      <c r="E3128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3129" spans="1:5">
+      <c r="A3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3129" t="s">
+        <v>6007</v>
+      </c>
+      <c r="D3129" t="s">
+        <v>6008</v>
+      </c>
+      <c r="E3129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3130" spans="1:5">
+      <c r="A3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3130" t="s">
+        <v>6009</v>
+      </c>
+      <c r="D3130" t="s">
+        <v>6010</v>
+      </c>
+      <c r="E3130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3131" spans="1:5">
+      <c r="A3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3131" t="s">
+        <v>6011</v>
+      </c>
+      <c r="D3131" t="s">
+        <v>6012</v>
+      </c>
+      <c r="E3131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3132" spans="1:5">
+      <c r="A3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3132" t="s">
+        <v>6013</v>
+      </c>
+      <c r="D3132" t="s">
+        <v>6014</v>
+      </c>
+      <c r="E3132" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3133" spans="1:5">
+      <c r="A3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3133" t="s">
+        <v>6015</v>
+      </c>
+      <c r="D3133" t="s">
+        <v>6016</v>
+      </c>
+      <c r="E3133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3134" spans="1:5">
+      <c r="A3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3134" t="s">
+        <v>6017</v>
+      </c>
+      <c r="D3134" t="s">
+        <v>6017</v>
+      </c>
+      <c r="E3134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3135" spans="1:5">
+      <c r="A3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3135" t="s">
+        <v>6018</v>
+      </c>
+      <c r="D3135" t="s">
+        <v>6019</v>
+      </c>
+      <c r="E3135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3136" spans="1:5">
+      <c r="A3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3136" t="s">
+        <v>6020</v>
+      </c>
+      <c r="D3136" t="s">
+        <v>6021</v>
+      </c>
+      <c r="E3136" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3137" spans="1:5">
+      <c r="A3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3137" t="s">
+        <v>6022</v>
+      </c>
+      <c r="D3137" t="s">
+        <v>6023</v>
+      </c>
+      <c r="E3137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3138" spans="1:5">
+      <c r="A3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3138" t="s">
+        <v>6024</v>
+      </c>
+      <c r="D3138" t="s">
+        <v>6025</v>
+      </c>
+      <c r="E3138" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3139" spans="1:5">
+      <c r="A3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3139" t="s">
+        <v>6026</v>
+      </c>
+      <c r="D3139" t="s">
+        <v>6027</v>
+      </c>
+      <c r="E3139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3140" spans="1:5">
+      <c r="A3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3140" t="s">
+        <v>6028</v>
+      </c>
+      <c r="D3140" t="s">
+        <v>6029</v>
+      </c>
+      <c r="E3140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3141" spans="1:5">
+      <c r="A3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3141" t="s">
+        <v>6030</v>
+      </c>
+      <c r="D3141" t="s">
+        <v>6031</v>
+      </c>
+      <c r="E3141" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3142" spans="1:5">
+      <c r="A3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3142" t="s">
+        <v>6032</v>
+      </c>
+      <c r="D3142" t="s">
+        <v>6033</v>
+      </c>
+      <c r="E3142" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3143" spans="1:5">
+      <c r="A3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3143" t="s">
+        <v>6034</v>
+      </c>
+      <c r="D3143" t="s">
+        <v>6035</v>
+      </c>
+      <c r="E3143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3144" spans="1:5">
+      <c r="A3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3144" t="s">
+        <v>6036</v>
+      </c>
+      <c r="D3144" t="s">
+        <v>6037</v>
+      </c>
+      <c r="E3144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3145" spans="1:5">
+      <c r="A3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3145" t="s">
+        <v>6038</v>
+      </c>
+      <c r="D3145" t="s">
+        <v>6039</v>
+      </c>
+      <c r="E3145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3146" spans="1:5">
+      <c r="A3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3146" t="s">
+        <v>6040</v>
+      </c>
+      <c r="D3146" t="s">
+        <v>6041</v>
+      </c>
+      <c r="E3146" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3147" spans="1:5">
+      <c r="A3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3147" t="s">
+        <v>6042</v>
+      </c>
+      <c r="D3147" t="s">
+        <v>6043</v>
+      </c>
+      <c r="E3147" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3148" spans="1:5">
+      <c r="A3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3148" t="s">
+        <v>6044</v>
+      </c>
+      <c r="D3148" t="s">
+        <v>6044</v>
+      </c>
+      <c r="E3148" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3149" spans="1:5">
+      <c r="A3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3149" t="s">
+        <v>6045</v>
+      </c>
+      <c r="D3149" t="s">
+        <v>6046</v>
+      </c>
+      <c r="E3149" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3150" spans="1:5">
+      <c r="A3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3150" t="s">
+        <v>6047</v>
+      </c>
+      <c r="D3150" t="s">
+        <v>6048</v>
+      </c>
+      <c r="E3150" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3151" spans="1:5">
+      <c r="A3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3151" t="s">
+        <v>6049</v>
+      </c>
+      <c r="D3151" t="s">
+        <v>6050</v>
+      </c>
+      <c r="E3151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3152" spans="1:5">
+      <c r="A3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3152" t="s">
+        <v>6051</v>
+      </c>
+      <c r="D3152" t="s">
+        <v>6052</v>
+      </c>
+      <c r="E3152" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3153" spans="1:5">
+      <c r="A3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3153" t="s">
+        <v>6053</v>
+      </c>
+      <c r="D3153" t="s">
+        <v>6054</v>
+      </c>
+      <c r="E3153" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3154" spans="1:5">
+      <c r="A3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3154" t="s">
+        <v>6055</v>
+      </c>
+      <c r="D3154" t="s">
+        <v>6056</v>
+      </c>
+      <c r="E3154" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3155" spans="1:5">
+      <c r="A3155" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3155" t="s">
+        <v>6057</v>
+      </c>
+      <c r="C3155" t="s">
+        <v>6058</v>
+      </c>
+      <c r="D3155" t="s">
+        <v>6059</v>
+      </c>
+      <c r="E3155" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3156" spans="1:5">
+      <c r="A3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3156" t="s">
+        <v>6060</v>
+      </c>
+      <c r="D3156" t="s">
+        <v>6061</v>
+      </c>
+      <c r="E3156" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3157" spans="1:5">
+      <c r="A3157" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3157" t="s">
+        <v>5879</v>
+      </c>
+      <c r="C3157" t="s">
+        <v>6062</v>
+      </c>
+      <c r="D3157" t="s">
+        <v>6063</v>
+      </c>
+      <c r="E3157" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3158" spans="1:5">
+      <c r="A3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3158" t="s">
+        <v>6064</v>
+      </c>
+      <c r="D3158" t="s">
+        <v>6065</v>
+      </c>
+      <c r="E3158" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3159" spans="1:5">
+      <c r="A3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3159" t="s">
+        <v>6066</v>
+      </c>
+      <c r="D3159" t="s">
+        <v>6066</v>
+      </c>
+      <c r="E3159" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3160" spans="1:5">
+      <c r="A3160" t="s">
+        <v>6067</v>
+      </c>
+      <c r="B3160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3160" t="s">
+        <v>6068</v>
+      </c>
+      <c r="D3160" t="s">
+        <v>6068</v>
+      </c>
+      <c r="E3160" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3161" spans="1:5">
+      <c r="A3161" t="s">
+        <v>6067</v>
+      </c>
+      <c r="B3161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3161" t="s">
+        <v>6069</v>
+      </c>
+      <c r="D3161" t="s">
+        <v>6069</v>
+      </c>
+      <c r="E3161" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3162" spans="1:5">
+      <c r="A3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3162" t="s">
+        <v>6070</v>
+      </c>
+      <c r="D3162" t="s">
+        <v>6070</v>
+      </c>
+      <c r="E3162" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3163" spans="1:5">
+      <c r="A3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3163" t="s">
+        <v>6071</v>
+      </c>
+      <c r="D3163" t="s">
+        <v>6071</v>
+      </c>
+      <c r="E3163" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3164" spans="1:5">
+      <c r="A3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3164" t="s">
+        <v>6072</v>
+      </c>
+      <c r="D3164" t="s">
+        <v>6073</v>
+      </c>
+      <c r="E3164" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3165" spans="1:5">
+      <c r="A3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3165" t="s">
+        <v>6074</v>
+      </c>
+      <c r="D3165" t="s">
+        <v>6074</v>
+      </c>
+      <c r="E3165" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3166" spans="1:5">
+      <c r="A3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3166" t="s">
+        <v>6075</v>
+      </c>
+      <c r="D3166" t="s">
+        <v>6076</v>
+      </c>
+      <c r="E3166" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3167" spans="1:5">
+      <c r="A3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3167" t="s">
+        <v>6077</v>
+      </c>
+      <c r="D3167" t="s">
+        <v>2619</v>
+      </c>
+      <c r="E3167" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3168" spans="1:5">
+      <c r="A3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3168" t="s">
+        <v>6078</v>
+      </c>
+      <c r="D3168" t="s">
+        <v>6079</v>
+      </c>
+      <c r="E3168" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3169" spans="1:5">
+      <c r="A3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3169" t="s">
+        <v>6080</v>
+      </c>
+      <c r="D3169" t="s">
+        <v>6081</v>
+      </c>
+      <c r="E3169" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3170" spans="1:5">
+      <c r="A3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3170" t="s">
+        <v>6082</v>
+      </c>
+      <c r="D3170" t="s">
+        <v>6083</v>
+      </c>
+      <c r="E3170" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3171" spans="1:5">
+      <c r="A3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3171" t="s">
+        <v>6084</v>
+      </c>
+      <c r="D3171" t="s">
+        <v>6085</v>
+      </c>
+      <c r="E3171" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3172" spans="1:5">
+      <c r="A3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3172" t="s">
+        <v>6086</v>
+      </c>
+      <c r="D3172" t="s">
+        <v>6087</v>
+      </c>
+      <c r="E3172" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3173" spans="1:5">
+      <c r="A3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3173" t="s">
+        <v>6088</v>
+      </c>
+      <c r="D3173" t="s">
+        <v>6089</v>
+      </c>
+      <c r="E3173" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3174" spans="1:5">
+      <c r="A3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3174" t="s">
+        <v>6090</v>
+      </c>
+      <c r="D3174" t="s">
+        <v>6091</v>
+      </c>
+      <c r="E3174" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3175" spans="1:5">
+      <c r="A3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3175" t="s">
+        <v>6092</v>
+      </c>
+      <c r="D3175" t="s">
+        <v>6093</v>
+      </c>
+      <c r="E3175" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3176" spans="1:5">
+      <c r="A3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3176" t="s">
+        <v>6094</v>
+      </c>
+      <c r="D3176" t="s">
+        <v>6095</v>
+      </c>
+      <c r="E3176" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3177" spans="1:5">
+      <c r="A3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3177" t="s">
+        <v>6096</v>
+      </c>
+      <c r="D3177" t="s">
+        <v>6097</v>
+      </c>
+      <c r="E3177" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3178" spans="1:5">
+      <c r="A3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3178" t="s">
+        <v>6098</v>
+      </c>
+      <c r="D3178" t="s">
+        <v>6099</v>
+      </c>
+      <c r="E3178" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3179" spans="1:5">
+      <c r="A3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3179" t="s">
+        <v>6100</v>
+      </c>
+      <c r="D3179" t="s">
+        <v>6101</v>
+      </c>
+      <c r="E3179" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3180" spans="1:5">
+      <c r="A3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3180" t="s">
+        <v>6102</v>
+      </c>
+      <c r="D3180" t="s">
+        <v>6103</v>
+      </c>
+      <c r="E3180" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3181" spans="1:5">
+      <c r="A3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3181" t="s">
+        <v>6104</v>
+      </c>
+      <c r="D3181" t="s">
+        <v>1800</v>
+      </c>
+      <c r="E3181" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3182" spans="1:5">
+      <c r="A3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3182" t="s">
+        <v>6105</v>
+      </c>
+      <c r="D3182" t="s">
+        <v>6106</v>
+      </c>
+      <c r="E3182" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3183" spans="1:5">
+      <c r="A3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3183" t="s">
+        <v>6107</v>
+      </c>
+      <c r="D3183" t="s">
+        <v>6108</v>
+      </c>
+      <c r="E3183" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3184" spans="1:5">
+      <c r="A3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3184" t="s">
+        <v>6109</v>
+      </c>
+      <c r="D3184" t="s">
+        <v>6110</v>
+      </c>
+      <c r="E3184" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3185" spans="1:5">
+      <c r="A3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3185" t="s">
+        <v>6111</v>
+      </c>
+      <c r="D3185" t="s">
+        <v>6112</v>
+      </c>
+      <c r="E3185" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3186" spans="1:5">
+      <c r="A3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3186" t="s">
+        <v>6113</v>
+      </c>
+      <c r="D3186" t="s">
+        <v>6114</v>
+      </c>
+      <c r="E3186" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3187" spans="1:5">
+      <c r="A3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3187" t="s">
+        <v>6115</v>
+      </c>
+      <c r="D3187" t="s">
+        <v>6116</v>
+      </c>
+      <c r="E3187" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3188" spans="1:5">
+      <c r="A3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3188" t="s">
+        <v>6117</v>
+      </c>
+      <c r="D3188" t="s">
+        <v>6118</v>
+      </c>
+      <c r="E3188" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3189" spans="1:5">
+      <c r="A3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3189" t="s">
+        <v>6119</v>
+      </c>
+      <c r="D3189" t="s">
+        <v>6120</v>
+      </c>
+      <c r="E3189" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3190" spans="1:5">
+      <c r="A3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3190" t="s">
+        <v>6121</v>
+      </c>
+      <c r="D3190" t="s">
+        <v>6122</v>
+      </c>
+      <c r="E3190" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3191" spans="1:5">
+      <c r="A3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3191" t="s">
+        <v>6123</v>
+      </c>
+      <c r="D3191" t="s">
+        <v>6124</v>
+      </c>
+      <c r="E3191" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3192" spans="1:5">
+      <c r="A3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3192" t="s">
+        <v>6125</v>
+      </c>
+      <c r="D3192" t="s">
+        <v>6126</v>
+      </c>
+      <c r="E3192" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3193" spans="1:5">
+      <c r="A3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3193" t="s">
+        <v>6127</v>
+      </c>
+      <c r="D3193" t="s">
+        <v>6128</v>
+      </c>
+      <c r="E3193" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3194" spans="1:5">
+      <c r="A3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3194" t="s">
+        <v>6129</v>
+      </c>
+      <c r="D3194" t="s">
+        <v>6130</v>
+      </c>
+      <c r="E3194" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3195" spans="1:5">
+      <c r="A3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3195" t="s">
+        <v>6131</v>
+      </c>
+      <c r="D3195" t="s">
+        <v>6132</v>
+      </c>
+      <c r="E3195" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3196" spans="1:5">
+      <c r="A3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3196" t="s">
+        <v>6133</v>
+      </c>
+      <c r="D3196" t="s">
+        <v>6134</v>
+      </c>
+      <c r="E3196" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3197" spans="1:5">
+      <c r="A3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3197" t="s">
+        <v>6135</v>
+      </c>
+      <c r="D3197" t="s">
+        <v>6136</v>
+      </c>
+      <c r="E3197" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3198" spans="1:5">
+      <c r="A3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3198" t="s">
+        <v>6137</v>
+      </c>
+      <c r="D3198" t="s">
+        <v>6138</v>
+      </c>
+      <c r="E3198" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3199" spans="1:5">
+      <c r="A3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3199" t="s">
+        <v>6139</v>
+      </c>
+      <c r="D3199" t="s">
+        <v>6140</v>
+      </c>
+      <c r="E3199" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3200" spans="1:5">
+      <c r="A3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3200" t="s">
+        <v>6141</v>
+      </c>
+      <c r="D3200" t="s">
+        <v>6142</v>
+      </c>
+      <c r="E3200" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3201" spans="1:5">
+      <c r="A3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3201" t="s">
+        <v>6143</v>
+      </c>
+      <c r="D3201" t="s">
+        <v>6144</v>
+      </c>
+      <c r="E3201" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3202" spans="1:5">
+      <c r="A3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3202" t="s">
+        <v>6145</v>
+      </c>
+      <c r="D3202" t="s">
+        <v>6146</v>
+      </c>
+      <c r="E3202" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3203" spans="1:5">
+      <c r="A3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3203" t="s">
+        <v>6147</v>
+      </c>
+      <c r="D3203" t="s">
+        <v>6148</v>
+      </c>
+      <c r="E3203" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3204" spans="1:5">
+      <c r="A3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3204" t="s">
+        <v>6149</v>
+      </c>
+      <c r="D3204" t="s">
+        <v>6150</v>
+      </c>
+      <c r="E3204" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3205" spans="1:5">
+      <c r="A3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3205" t="s">
+        <v>6151</v>
+      </c>
+      <c r="D3205" t="s">
+        <v>6152</v>
+      </c>
+      <c r="E3205" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3206" spans="1:5">
+      <c r="A3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3206" t="s">
+        <v>6153</v>
+      </c>
+      <c r="D3206" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E3206" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3207" spans="1:5">
+      <c r="A3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3207" t="s">
+        <v>6155</v>
+      </c>
+      <c r="D3207" t="s">
+        <v>6156</v>
+      </c>
+      <c r="E3207" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3208" spans="1:5">
+      <c r="A3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3208" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D3208" t="s">
+        <v>6158</v>
+      </c>
+      <c r="E3208" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3209" spans="1:5">
+      <c r="A3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3209" t="s">
+        <v>6159</v>
+      </c>
+      <c r="D3209" t="s">
+        <v>6160</v>
+      </c>
+      <c r="E3209" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3210" spans="1:5">
+      <c r="A3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3210" t="s">
+        <v>6161</v>
+      </c>
+      <c r="D3210" t="s">
+        <v>6162</v>
+      </c>
+      <c r="E3210" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3211" spans="1:5">
+      <c r="A3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3211" t="s">
+        <v>6163</v>
+      </c>
+      <c r="D3211" t="s">
+        <v>6164</v>
+      </c>
+      <c r="E3211" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3212" spans="1:5">
+      <c r="A3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3212" t="s">
+        <v>6165</v>
+      </c>
+      <c r="D3212" t="s">
+        <v>6166</v>
+      </c>
+      <c r="E3212" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3213" spans="1:5">
+      <c r="A3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3213" t="s">
+        <v>6167</v>
+      </c>
+      <c r="D3213" t="s">
+        <v>2214</v>
+      </c>
+      <c r="E3213" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3214" spans="1:5">
+      <c r="A3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3214" t="s">
+        <v>6168</v>
+      </c>
+      <c r="D3214" t="s">
+        <v>6169</v>
+      </c>
+      <c r="E3214" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3215" spans="1:5">
+      <c r="A3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3215" t="s">
+        <v>6170</v>
+      </c>
+      <c r="D3215" t="s">
+        <v>6171</v>
+      </c>
+      <c r="E3215" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3216" spans="1:5">
+      <c r="A3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3216" t="s">
+        <v>6172</v>
+      </c>
+      <c r="D3216" t="s">
+        <v>6173</v>
+      </c>
+      <c r="E3216" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3217" spans="1:5">
+      <c r="A3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3217" t="s">
+        <v>6174</v>
+      </c>
+      <c r="D3217" t="s">
+        <v>6175</v>
+      </c>
+      <c r="E3217" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
@@ -70088,5 +73601,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>
--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/ro_RO.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/ro_RO.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5991">
   <si>
     <t>translation_group</t>
   </si>
@@ -10127,7 +10127,7 @@
     <t>Fill in the fields for maximum results when finding your website in search engines.</t>
   </si>
   <si>
-    <t>Completați câmpurile pentru rezultate maxime atunci când găsiți site-ul dvs. în motoarele de căutare.</t>
+    <t>Completați câmpurile pentru rezultate maxime atunci când vă găsiți site-ul în motoarele de căutare.</t>
   </si>
   <si>
     <t>This is very important for search engines.</t>
@@ -17085,13 +17085,13 @@
     <t>Welcome to Microweber</t>
   </si>
   <si>
-    <t>Bine ați venit la Microweber</t>
+    <t>Bun venit la Microweber</t>
   </si>
   <si>
     <t>Use Microweber to build your website, online shop or blog.</t>
   </si>
   <si>
-    <t>Folosiți Microweber pentru a vă construi site-ul, magazinul online sau blogul.</t>
+    <t>Utilizați Microweber pentru a vă construi site-ul web, magazinul online sau blogul.</t>
   </si>
   <si>
     <t>Create and edit content, sell online, manage orders and clients.</t>
@@ -17109,25 +17109,25 @@
     <t>Abandoned cart's</t>
   </si>
   <si>
-    <t>Căruța abandonată</t>
+    <t>Cărucioarele abandonate</t>
   </si>
   <si>
     <t>You are using this template.</t>
   </si>
   <si>
-    <t>Folosiți acest șablon.</t>
+    <t>Utilizați acest șablon.</t>
   </si>
   <si>
     <t>The change will affect only the current page.</t>
   </si>
   <si>
-    <t>Modificarea va afecta doar pagina curentă.</t>
+    <t>Modificarea va afecta numai pagina curentă.</t>
   </si>
   <si>
     <t>Allow multiple templates</t>
   </si>
   <si>
-    <t>Permiteți mai multe șabloane</t>
+    <t>Permite mai multe șabloane</t>
   </si>
   <si>
     <t>If you allow multiple templates, you will be abble to use different templates when you create a new pages.</t>
@@ -17145,7 +17145,7 @@
     <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
   </si>
   <si>
-    <t>Livrați mesaje legate de înregistrarea nouă, resetarea parolei și alte funcționalități ale sistemului.</t>
+    <t>Trimiteți mesaje legate de înregistrarea nouă, resetarea parolei și alte funcționalități ale sistemului.</t>
   </si>
   <si>
     <t>From e-mail address</t>
@@ -17157,7 +17157,7 @@
     <t>Ex. Your Website Name</t>
   </si>
   <si>
-    <t>Ex. Numele site-ului dvs. web</t>
+    <t>Ex. Numele site-ului dvs</t>
   </si>
   <si>
     <t>General e-mail provider settings</t>
@@ -17169,25 +17169,25 @@
     <t>Set up your email provider.</t>
   </si>
   <si>
-    <t>Configurați furnizorul de e-mail.</t>
+    <t>Configurați-vă furnizorul de e-mail.</t>
   </si>
   <si>
     <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
   </si>
   <si>
-    <t>Furnizorul general de e-mail va livra toate mesajele legate de site-ul web. Inclusiv mesaje de sistem și mesaje din formularul de contact.</t>
+    <t>Furnizorul general de e-mail va livra toate mesajele legate de site-ul web. Inclusiv mesajele de sistem și mesajele din formularul de contact.</t>
   </si>
   <si>
     <t>Website Logo</t>
   </si>
   <si>
-    <t>Logo-ul site-ului web</t>
+    <t>Sigla site-ului</t>
   </si>
   <si>
     <t>Select an logo for your website.</t>
   </si>
   <si>
-    <t>Selectați o siglă pentru site-ul dvs. web.</t>
+    <t>Selectați un logo pentru site-ul dvs.</t>
   </si>
   <si>
     <t>Upload logo</t>
@@ -17196,19 +17196,19 @@
     <t>Website Favicon</t>
   </si>
   <si>
-    <t>Site-ul Favicon</t>
+    <t>Site Favicon</t>
   </si>
   <si>
     <t>Changing default language..</t>
   </si>
   <si>
-    <t>Schimbarea limbii implicite ..</t>
+    <t>Se schimbă limba implicită...</t>
   </si>
   <si>
     <t>Clear cache..</t>
   </si>
   <si>
-    <t>Ștergeți memoria cache ..</t>
+    <t>Goliți memoria cache..</t>
   </si>
   <si>
     <t>Install Multilanguage Module</t>
@@ -17220,46 +17220,49 @@
     <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
   </si>
   <si>
+    <t>Utilizatorii se pot înregistra cu e-mailuri temporare precum - Mailinator, MailDrop, Guerrilla...s</t>
+  </si>
+  <si>
     <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
   </si>
   <si>
-    <t>Înregistrarea utilizatorilor poate primi automat un e-mail automat de la dvs. Vedeți setările și postați-vă mesajele.</t>
+    <t>Utilizatorii înregistrați pot primi automat un e-mail automat de la dvs. Vedeți setările și postați mesajele dvs.</t>
   </si>
   <si>
     <t>Send email on new user registration to admin users</t>
   </si>
   <si>
-    <t>Trimiteți e-mail la înregistrarea utilizatorilor noi utilizatorilor administratori</t>
+    <t>Trimiteți e-mail cu privire la înregistrarea unui nou utilizator utilizatorilor admin</t>
   </si>
   <si>
     <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
   </si>
   <si>
-    <t>Doriți ca administratorii să primească un e-mail când este înregistrat un nou utilizator?</t>
+    <t>Doriți ca administratorii să primească un e-mail atunci când se înregistrează un nou utilizator?</t>
   </si>
   <si>
     <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
   </si>
   <si>
-    <t>Microweber este un open source gratuit de drag and drop, care creează site-uri web și CMS. Este sub licență MIT și folosim cadrul Laravel PHP</t>
+    <t>Microweber este un creator gratuit de site-uri web și CMS open source. Este sub licență MIT și folosim framework-ul Laravel PHP</t>
   </si>
   <si>
     <t>A Slider</t>
   </si>
   <si>
-    <t>Un glisor</t>
+    <t>Un Slider</t>
   </si>
   <si>
     <t>Shipping to address</t>
   </si>
   <si>
-    <t>Expediere la adresa</t>
+    <t>Livrare la adresa</t>
   </si>
   <si>
     <t>Pickup from address</t>
   </si>
   <si>
-    <t>Preluare de la adresă</t>
+    <t>Ridicare de la adresa</t>
   </si>
   <si>
     <t>Global settings</t>
@@ -17271,19 +17274,19 @@
     <t>E-mail Integrations</t>
   </si>
   <si>
-    <t>Integrări prin e-mail</t>
+    <t>Integrari de e-mail</t>
   </si>
   <si>
     <t>You don't have system e-mail and smtp setup.</t>
   </si>
   <si>
-    <t>Nu aveți configurare e-mail și smtp de sistem.</t>
+    <t>Nu aveți e-mail de sistem și configurare smtp.</t>
   </si>
   <si>
     <t>Setup your system settings here.</t>
   </si>
   <si>
-    <t>Configurați aici setările sistemului.</t>
+    <t>Configurați setările sistemului aici.</t>
   </si>
   <si>
     <t>Global contact form settings</t>
@@ -17295,7 +17298,7 @@
     <t>E-mail sending options</t>
   </si>
   <si>
-    <t>Opțiuni de trimitere a e-mailurilor</t>
+    <t>Opțiuni de trimitere a e-mailului</t>
   </si>
   <si>
     <t>Global sender</t>
@@ -17313,7 +17316,7 @@
     <t>Use custom sender settings for the global contact forms.</t>
   </si>
   <si>
-    <t>Utilizați setările personalizate ale expeditorului pentru formularele de contact globale.</t>
+    <t>Utilizați setările personalizate ale expeditorului pentru formularele globale de contact.</t>
   </si>
   <si>
     <t>By default we will use website system e-mail settings.</t>
@@ -17325,37 +17328,37 @@
     <t>You can change the system e-mail settings here.</t>
   </si>
   <si>
-    <t>Aici puteți schimba setările de e-mail ale sistemului.</t>
+    <t>Puteți modifica setările de e-mail ale sistemului aici.</t>
   </si>
   <si>
     <t>Global Receivers</t>
   </si>
   <si>
-    <t>Receptoare globale</t>
+    <t>Receptori Globali</t>
   </si>
   <si>
     <t>Send contact forms data to global receivers when is submited</t>
   </si>
   <si>
-    <t>Trimiteți datele formularelor de contact destinatarilor globali atunci când este trimis</t>
+    <t>Trimiteți datele formularelor de contact către destinatari globali atunci când sunt trimise</t>
   </si>
   <si>
     <t>To e-mail addresses</t>
   </si>
   <si>
-    <t>Pentru adrese de e-mail</t>
+    <t>La adresele de e-mail</t>
   </si>
   <si>
     <t>E-mail address of the receivers seperated with coma.</t>
   </si>
   <si>
-    <t>Adresa de e-mail a receptorilor separați de comă.</t>
+    <t>Adresa de e-mail a receptorilor separată de comă.</t>
   </si>
   <si>
     <t>Contact your hosting provider to enable PHP SOAP extension.</t>
   </si>
   <si>
-    <t>Contactați furnizorul de găzduire pentru a activa extensia SOAP PHP.</t>
+    <t>Contactați furnizorul dvs. de găzduire pentru a activa extensia PHP SOAP.</t>
   </si>
   <si>
     <t>Elements</t>
@@ -17379,7 +17382,7 @@
     <t>Remove favicon</t>
   </si>
   <si>
-    <t>Eliminați faviconul</t>
+    <t>Eliminați favicon</t>
   </si>
   <si>
     <t>Custom</t>
@@ -17397,7 +17400,7 @@
     <t>ProductsV2</t>
   </si>
   <si>
-    <t>Produse V2</t>
+    <t>ProduseV2</t>
   </si>
   <si>
     <t>Timeline</t>
@@ -17418,7 +17421,7 @@
     <t>Module template has changed</t>
   </si>
   <si>
-    <t>Șablonul modulului s-a schimbat</t>
+    <t>Șablonul de modul s-a schimbat</t>
   </si>
   <si>
     <t>Content versions</t>
@@ -17430,6 +17433,9 @@
     <t>Clear Cache</t>
   </si>
   <si>
+    <t>Goliți memoria cache</t>
+  </si>
+  <si>
     <t>Default layouts and elements</t>
   </si>
   <si>
@@ -17439,7 +17445,7 @@
     <t>Arrows List</t>
   </si>
   <si>
-    <t>Lista săgeților</t>
+    <t>Lista cu săgeți</t>
   </si>
   <si>
     <t>Checked List</t>
@@ -17514,13 +17520,13 @@
     <t>Add / Edit fields of the form using the custom fields</t>
   </si>
   <si>
-    <t>Adăugați / Editați câmpurile formularului utilizând câmpurile personalizate</t>
+    <t>Adăugați / Editați câmpuri din formular folosind câmpurile personalizate</t>
   </si>
   <si>
     <t>Current contact form settings</t>
   </si>
   <si>
-    <t>Setările curente ale formularului de contact</t>
+    <t>Setări curente ale formularului de contact</t>
   </si>
   <si>
     <t>Contact form name</t>
@@ -17538,25 +17544,25 @@
     <t>Receivers</t>
   </si>
   <si>
-    <t>Receptoare</t>
+    <t>Receptorii</t>
   </si>
   <si>
     <t>Send contact form data to custom receivers when is submited</t>
   </si>
   <si>
-    <t>Trimiteți datele formularului de contact destinatarilor personalizați atunci când este trimis</t>
+    <t>Trimiteți datele formularului de contact către destinatari personalizați atunci când sunt trimise</t>
   </si>
   <si>
     <t>Use custom receivers settings for the current contact form.</t>
   </si>
   <si>
-    <t>Utilizați setări de receptoare personalizate pentru formularul de contact curent.</t>
+    <t>Utilizați setările personalizate ale receptorilor pentru formularul de contact curent.</t>
   </si>
   <si>
     <t>By default we will use contact form global settings.</t>
   </si>
   <si>
-    <t>În mod implicit, vom utiliza setările globale ale formularului de contact.</t>
+    <t>În mod implicit, vom folosi setările globale ale formularului de contact.</t>
   </si>
   <si>
     <t>You can change the contact form global settings here.</t>
@@ -17568,19 +17574,19 @@
     <t>Auto respond message to user</t>
   </si>
   <si>
-    <t>Mesaj de răspuns automat către utilizator</t>
+    <t>Mesajul de răspuns automat către utilizator</t>
   </si>
   <si>
     <t>Enable auto respond message to user</t>
   </si>
   <si>
-    <t>Activați mesajul de răspuns automat utilizatorului</t>
+    <t>Activați mesajul de răspuns automat pentru utilizator</t>
   </si>
   <si>
     <t>Allow users to receive "Thank you emails after subscription."</t>
   </si>
   <si>
-    <t>Permiteți utilizatorilor să primească „E-mailuri de mulțumire după abonament”.</t>
+    <t>Permiteți utilizatorilor să primească „e-mailuri de mulțumire după abonament”.</t>
   </si>
   <si>
     <t>Auto respond subject</t>
@@ -17595,6 +17601,9 @@
     <t>Auto respond e-mail sent back to the user</t>
   </si>
   <si>
+    <t>E-mail cu răspuns automat trimis înapoi utilizatorului</t>
+  </si>
+  <si>
     <t>Auto respond custom sender</t>
   </si>
   <si>
@@ -17628,28 +17637,31 @@
     <t>When the user receive the auto respond message they can response back to reply to email.</t>
   </si>
   <si>
-    <t>Când utilizatorul primește mesajul de răspuns automat, acesta poate răspunde înapoi pentru a răspunde la e-mail.</t>
+    <t>Când utilizatorul primește mesajul de răspuns automat, poate răspunde la e-mail.</t>
   </si>
   <si>
     <t>Auto respond e-mail attachments</t>
   </si>
   <si>
-    <t>Atasamente de e-mail cu raspuns automat</t>
+    <t>Răspuns automat atașamentelor de e-mail</t>
   </si>
   <si>
     <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
   </si>
   <si>
+    <t>Dacă doriți să atașați og imagini, trebuie să le încărcați în galerie din „Adăugați conținut media”</t>
+  </si>
+  <si>
     <t>You don’t have any posts yet</t>
   </si>
   <si>
-    <t>Nu aveți încă postări</t>
+    <t>Nu aveți încă nicio postare</t>
   </si>
   <si>
     <t>Create your first post right now.</t>
   </si>
   <si>
-    <t>Creați prima dvs. postare chiar acum.</t>
+    <t>Creați-vă prima postare chiar acum.</t>
   </si>
   <si>
     <t>Create a Post</t>
@@ -17670,11 +17682,11 @@
   </si>
   <si>
     <t>Cum să scrieți descrieri de produse care vând
-                                                    Unul dintre cele mai bune lucruri pe care le puteți face pentru ca magazinul dvs. să aibă succes este să investiți ceva timp în scrierea unor descrieri excelente de produse. Doriți să furnizați informații detaliate, dar concise, care să atragă potențialii clienți să cumpere.
+                                                    Unul dintre cele mai bune lucruri pe care le puteți face pentru ca magazinul dvs. să aibă succes este să investiți ceva timp în scrierea unor descrieri grozave de produse. Doriți să oferiți informații detaliate, dar concise, care vor atrage clienții potențiali să cumpere.
                                                     Gândiți-vă ca un consumator
-                                                    Gândiți-vă la ceea ce ați dori, în calitate de consumator, să știți, apoi includeți aceste caracteristici în descrierea dvs. Pentru haine: materiale și potrivire. Pentru alimente: ingrediente și modul în care a fost preparată. Gloanțele sunt prietenii tăi atunci când afișezi
-                                                   caracteristici - încearcă să
-                                                            limitezi fiecare la 5-8 cuvinte.</t>
+                                                    Gândiți-vă la ceea ce dvs., în calitate de consumator, doriți să știți, apoi includeți acele caracteristici în descrierea dvs. Pentru haine: materiale și potrivire. Pentru alimente: ingrediente și cum a fost preparat. Marcatorii sunt prietenii dvs. atunci când enumerați funcții de
+                                                   — încercați să limitați fiecare dintre
+                                                            la 5-8 cuvinte.</t>
   </si>
   <si>
     <t>Admin language</t>
@@ -17683,346 +17695,268 @@
     <t>Limba admin</t>
   </si>
   <si>
+    <t>Add post</t>
+  </si>
+  <si>
+    <t>Adaugă postare</t>
+  </si>
+  <si>
+    <t>Add subpage</t>
+  </si>
+  <si>
+    <t>Adăugați o subpagină</t>
+  </si>
+  <si>
+    <t>Category deleted</t>
+  </si>
+  <si>
+    <t>Categoria a fost ștearsă</t>
+  </si>
+  <si>
+    <t>Content deleted</t>
+  </si>
+  <si>
+    <t>Search categories</t>
+  </si>
+  <si>
+    <t>Caută categorii</t>
+  </si>
+  <si>
+    <t>Create content</t>
+  </si>
+  <si>
+    <t>Creați conținut</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>Orice</t>
+  </si>
+  <si>
+    <t>Id Desc</t>
+  </si>
+  <si>
+    <t>Id Asc</t>
+  </si>
+  <si>
     <t>Limit</t>
   </si>
   <si>
     <t>Limită</t>
   </si>
   <si>
+    <t>Are you sure want to delete?</t>
+  </si>
+  <si>
+    <t>Sigur doriți să ștergeți?</t>
+  </si>
+  <si>
+    <t>You don’t have any products in</t>
+  </si>
+  <si>
+    <t>Nu ai niciun produs</t>
+  </si>
+  <si>
+    <t>Back to</t>
+  </si>
+  <si>
+    <t>Înapoi la</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>categorii</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>Câmpurile personalizate sunt salvate</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>Câmpuri existente</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>Alegeți din câmpurile existente de mai jos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adăugați câmpuri noi</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>Adăugați un câmp personalizat nou din lista de mai jos</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>Câmpurile tale</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>Lista câmpurilor personalizate adăugate</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Stoc</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Sistem</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>Redirecționare browser</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Integrare</t>
+  </si>
+  <si>
+    <t>Import Export Tool</t>
+  </si>
+  <si>
+    <t>Instrumentul Import Export</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>Updater autonom</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>Previzualizare pachet</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Utilizare</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Express</t>
+  </si>
+  <si>
+    <t>Expres</t>
+  </si>
+  <si>
+    <t>First Class</t>
+  </si>
+  <si>
+    <t>Clasa întâi</t>
+  </si>
+  <si>
+    <t>Click &amp; Collect</t>
+  </si>
+  <si>
+    <t>Faceți clic și Colectați</t>
+  </si>
+  <si>
+    <t>Video Background</t>
+  </si>
+  <si>
+    <t>Fundal video</t>
+  </si>
+  <si>
+    <t>Multi-Language</t>
+  </si>
+  <si>
+    <t>Multi-limbi</t>
+  </si>
+  <si>
+    <t>You can activate the Multi-language module to use multiple languages</t>
+  </si>
+  <si>
+    <t>Puteți activa modulul în mai multe limbi pentru a utiliza mai multe limbi</t>
+  </si>
+  <si>
+    <t>Multi language mode</t>
+  </si>
+  <si>
+    <t>Modul în mai multe limbi</t>
+  </si>
+  <si>
+    <t>Activate the multi-language mode to have multiple languages for your content.</t>
+  </si>
+  <si>
+    <t>Activați modul în mai multe limbi pentru a avea mai multe limbi pentru conținutul dvs.</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>Traducerile sunt importate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traducerile nu au fost găsite în baza de date. Doriți să importați traduceri? </t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>Coșul tău este gol.</t>
+  </si>
+  <si>
     <t>Code Editor</t>
   </si>
   <si>
     <t>Editor de coduri</t>
   </si>
   <si>
-    <t>Blog</t>
-  </si>
-  <si>
-    <t>titles</t>
-  </si>
-  <si>
-    <t>titluri</t>
-  </si>
-  <si>
-    <t>Titles 1</t>
-  </si>
-  <si>
-    <t>Titluri 1</t>
-  </si>
-  <si>
-    <t>Titles 2</t>
-  </si>
-  <si>
-    <t>Titluri 2</t>
-  </si>
-  <si>
-    <t>Titles 3</t>
-  </si>
-  <si>
-    <t>Titluri 3</t>
-  </si>
-  <si>
-    <t>Titles 4</t>
-  </si>
-  <si>
-    <t>Titluri 4</t>
-  </si>
-  <si>
-    <t>Titles 5</t>
-  </si>
-  <si>
-    <t>Titluri 5</t>
-  </si>
-  <si>
-    <t>Titles 6</t>
-  </si>
-  <si>
-    <t>Titluri 6</t>
-  </si>
-  <si>
-    <t>Titles 7</t>
-  </si>
-  <si>
-    <t>Titluri 7</t>
-  </si>
-  <si>
-    <t>Titles 8</t>
-  </si>
-  <si>
-    <t>Titluri 8</t>
-  </si>
-  <si>
-    <t>text block</t>
-  </si>
-  <si>
-    <t>bloc de text</t>
-  </si>
-  <si>
-    <t>Text block 1</t>
-  </si>
-  <si>
-    <t>Blocul de text 1</t>
-  </si>
-  <si>
-    <t>Text block 2</t>
-  </si>
-  <si>
-    <t>Blocul de text 2</t>
-  </si>
-  <si>
-    <t>Text block 3</t>
-  </si>
-  <si>
-    <t>Blocul de text 3</t>
-  </si>
-  <si>
-    <t>Text block 4</t>
-  </si>
-  <si>
-    <t>Blocul de text 4</t>
-  </si>
-  <si>
-    <t>Text block 5</t>
-  </si>
-  <si>
-    <t>Blocul de text 5</t>
-  </si>
-  <si>
-    <t>Text block 6</t>
-  </si>
-  <si>
-    <t>Blocul de text 6</t>
-  </si>
-  <si>
-    <t>Text block 7</t>
-  </si>
-  <si>
-    <t>Blocul de text 7</t>
-  </si>
-  <si>
-    <t>Text block 8</t>
-  </si>
-  <si>
-    <t>Blocul de text 8</t>
-  </si>
-  <si>
-    <t>Text block 9</t>
-  </si>
-  <si>
-    <t>Blocul de text 9</t>
-  </si>
-  <si>
-    <t>Text block 10</t>
-  </si>
-  <si>
-    <t>Blocul de text 10</t>
-  </si>
-  <si>
-    <t>Text block 11</t>
-  </si>
-  <si>
-    <t>Blocul de text 11</t>
-  </si>
-  <si>
-    <t>Text block 12</t>
-  </si>
-  <si>
-    <t>Blocul de text 12</t>
-  </si>
-  <si>
-    <t>Text block 13</t>
-  </si>
-  <si>
-    <t>Blocul de text 13</t>
-  </si>
-  <si>
-    <t>Text block 14</t>
-  </si>
-  <si>
-    <t>Blocul de text 14</t>
-  </si>
-  <si>
-    <t>Text block 15</t>
-  </si>
-  <si>
-    <t>Blocul de text 15</t>
-  </si>
-  <si>
-    <t>features</t>
-  </si>
-  <si>
-    <t>Features 1</t>
-  </si>
-  <si>
-    <t>Caracteristici 1</t>
-  </si>
-  <si>
-    <t>Features 2</t>
-  </si>
-  <si>
-    <t>Caracteristici 2</t>
-  </si>
-  <si>
-    <t>Features 3</t>
-  </si>
-  <si>
-    <t>Caracteristici 3</t>
-  </si>
-  <si>
-    <t>Features 4</t>
-  </si>
-  <si>
-    <t>Caracteristici 4</t>
-  </si>
-  <si>
-    <t>grids</t>
-  </si>
-  <si>
-    <t>grile</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>meniul</t>
-  </si>
-  <si>
-    <t>Menu - skin-1</t>
-  </si>
-  <si>
-    <t>Meniu - skin-1</t>
-  </si>
-  <si>
-    <t>Menu - skin-2</t>
-  </si>
-  <si>
-    <t>Meniu - skin-2</t>
-  </si>
-  <si>
-    <t>Menu - skin-3</t>
-  </si>
-  <si>
-    <t>Meniu - skin-3</t>
-  </si>
-  <si>
-    <t>Menu - skin-4</t>
-  </si>
-  <si>
-    <t>Meniu - skin-4</t>
-  </si>
-  <si>
-    <t>Menu - skin-5</t>
-  </si>
-  <si>
-    <t>Meniu - skin-5</t>
-  </si>
-  <si>
-    <t>footers</t>
-  </si>
-  <si>
-    <t>subsolurile</t>
-  </si>
-  <si>
-    <t>Footers 1</t>
-  </si>
-  <si>
-    <t>Subsolurile 1</t>
-  </si>
-  <si>
-    <t>Footers 2</t>
-  </si>
-  <si>
-    <t>Subsolurile 2</t>
-  </si>
-  <si>
-    <t>Footers 3</t>
-  </si>
-  <si>
-    <t>Subsolurile 3</t>
-  </si>
-  <si>
-    <t>Footers 4</t>
-  </si>
-  <si>
-    <t>Subsolurile 4</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>alte</t>
-  </si>
-  <si>
-    <t>jumbotron</t>
-  </si>
-  <si>
-    <t>Jumbotron 1</t>
-  </si>
-  <si>
-    <t>pricing</t>
-  </si>
-  <si>
-    <t>stabilirea prețurilor</t>
-  </si>
-  <si>
-    <t>Pricing 1</t>
-  </si>
-  <si>
-    <t>Preț 1</t>
-  </si>
-  <si>
     <t>Default layouts</t>
   </si>
   <si>
     <t>Aspecte implicite</t>
   </si>
   <si>
-    <t>No Content Here</t>
-  </si>
-  <si>
-    <t>Nu există conținut aici</t>
-  </si>
-  <si>
-    <t>Custom fields are saved</t>
-  </si>
-  <si>
-    <t>Câmpurile personalizate sunt salvate</t>
-  </si>
-  <si>
-    <t>Existing fields</t>
-  </si>
-  <si>
-    <t>Câmpuri existente</t>
-  </si>
-  <si>
-    <t>Choose from your existing fields bellow</t>
-  </si>
-  <si>
-    <t>Alegeți din câmpurile existente de mai jos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Add new fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Adăugați câmpuri noi</t>
-  </si>
-  <si>
-    <t>Add new custom field from list bellow</t>
-  </si>
-  <si>
-    <t>Adăugați un câmp personalizat nou din lista de mai jos</t>
-  </si>
-  <si>
-    <t>Your fields</t>
-  </si>
-  <si>
-    <t>Câmpurile tale</t>
-  </si>
-  <si>
-    <t>List of your added custom fields</t>
-  </si>
-  <si>
-    <t>Lista câmpurilor personalizate adăugate</t>
+    <t>New import</t>
+  </si>
+  <si>
+    <t>Import nou</t>
   </si>
   <si>
     <t xml:space="preserve">repeat vertically </t>
@@ -18068,495 +18002,6 @@
   </si>
   <si>
     <t>Reîncărcarea stilurilor</t>
-  </si>
-  <si>
-    <t>Links to</t>
-  </si>
-  <si>
-    <t>Link-uri către</t>
-  </si>
-  <si>
-    <t>Preview package</t>
-  </si>
-  <si>
-    <t>Previzualizare pachet</t>
-  </si>
-  <si>
-    <t>Demo</t>
-  </si>
-  <si>
-    <t>Use</t>
-  </si>
-  <si>
-    <t>Utilizare</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>Actual</t>
-  </si>
-  <si>
-    <t>Reorder</t>
-  </si>
-  <si>
-    <t>Reordonați</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>Sistem</t>
-  </si>
-  <si>
-    <t>Browser Redirect</t>
-  </si>
-  <si>
-    <t>Redirecționare browser</t>
-  </si>
-  <si>
-    <t>Integration</t>
-  </si>
-  <si>
-    <t>Integrare</t>
-  </si>
-  <si>
-    <t>Standalone Updater</t>
-  </si>
-  <si>
-    <t>Updater autonom</t>
-  </si>
-  <si>
-    <t>You need license key to install this package</t>
-  </si>
-  <si>
-    <t>Aveți nevoie de cheia de licență pentru a instala acest pachet</t>
-  </si>
-  <si>
-    <t>This package is premium and you must have a license key to install it</t>
-  </si>
-  <si>
-    <t>Acest pachet este premium și trebuie să aveți o cheie de licență pentru a-l instala</t>
-  </si>
-  <si>
-    <t>You need license key</t>
-  </si>
-  <si>
-    <t>Ai nevoie de cheie de licență</t>
-  </si>
-  <si>
-    <t>License activated</t>
-  </si>
-  <si>
-    <t>Licență activată</t>
-  </si>
-  <si>
-    <t>Reloading page</t>
-  </si>
-  <si>
-    <t>Se reîncarcă pagina</t>
-  </si>
-  <si>
-    <t>License not activated</t>
-  </si>
-  <si>
-    <t>Licența nu este activată</t>
-  </si>
-  <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>System updates</t>
-  </si>
-  <si>
-    <t>Actualizari de sistem</t>
-  </si>
-  <si>
-    <t>Check for system updates</t>
-  </si>
-  <si>
-    <t>Verificați actualizările de sistem</t>
-  </si>
-  <si>
-    <t>Back to list</t>
-  </si>
-  <si>
-    <t>Înapoi la listă</t>
-  </si>
-  <si>
-    <t>The category must have a name</t>
-  </si>
-  <si>
-    <t>Categoria trebuie să aibă un nume</t>
-  </si>
-  <si>
-    <t>Is category hidden?</t>
-  </si>
-  <si>
-    <t>Este categoria ascunsă?</t>
-  </si>
-  <si>
-    <t>If you set this to YES this category will be hidden from the website</t>
-  </si>
-  <si>
-    <t>Dacă setați acest lucru la DA, această categorie va fi ascunsă de pe site</t>
-  </si>
-  <si>
-    <t>template-big</t>
-  </si>
-  <si>
-    <t>Mentioning</t>
-  </si>
-  <si>
-    <t>Menționând</t>
-  </si>
-  <si>
-    <t>Your cart is empty.</t>
-  </si>
-  <si>
-    <t>Coșul tău este gol.</t>
-  </si>
-  <si>
-    <t>Results found</t>
-  </si>
-  <si>
-    <t>Rezultate găsite</t>
-  </si>
-  <si>
-    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
-  </si>
-  <si>
-    <t>Dacă alegeți Procentul din câmpul de selectare, acesta va fi calculat automat din Prețul și prețul de ofertă al produsului.</t>
-  </si>
-  <si>
-    <t>أضف منتج</t>
-  </si>
-  <si>
-    <t>validation</t>
-  </si>
-  <si>
-    <t>custom.multilanguage.title.en_US.required</t>
-  </si>
-  <si>
-    <t>values.multilanguage.title.en_US.</t>
-  </si>
-  <si>
-    <t>تحرير المنتج</t>
-  </si>
-  <si>
-    <t>iuiuui</t>
-  </si>
-  <si>
-    <t>Proceed to Checkout</t>
-  </si>
-  <si>
-    <t>Finalizează cumpărăturile</t>
-  </si>
-  <si>
-    <t>تحرير آخر</t>
-  </si>
-  <si>
-    <t>Displaying</t>
-  </si>
-  <si>
-    <t>Afișarea</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>result(s)</t>
-  </si>
-  <si>
-    <t>rezultat(e)</t>
-  </si>
-  <si>
-    <t>Page Title - Right Breadcrumb</t>
-  </si>
-  <si>
-    <t>Titlul paginii - Pesmet dreapta</t>
-  </si>
-  <si>
-    <t>Page Title - Left Breadcrumb</t>
-  </si>
-  <si>
-    <t>Titlul paginii - Pesmet stânga</t>
-  </si>
-  <si>
-    <t>Terms of use</t>
-  </si>
-  <si>
-    <t>Termeni de utilizare</t>
-  </si>
-  <si>
-    <t>Delivery and returns</t>
-  </si>
-  <si>
-    <t>Livrare si retur</t>
-  </si>
-  <si>
-    <t>Shipping information</t>
-  </si>
-  <si>
-    <t>Informații despre livrare</t>
-  </si>
-  <si>
-    <t>About 1</t>
-  </si>
-  <si>
-    <t>Aproximativ 1</t>
-  </si>
-  <si>
-    <t>About 2</t>
-  </si>
-  <si>
-    <t>Cam 2</t>
-  </si>
-  <si>
-    <t>About 3</t>
-  </si>
-  <si>
-    <t>Cam 3</t>
-  </si>
-  <si>
-    <t>Home 1</t>
-  </si>
-  <si>
-    <t>casa 1</t>
-  </si>
-  <si>
-    <t>Home 2</t>
-  </si>
-  <si>
-    <t>Acasă 2</t>
-  </si>
-  <si>
-    <t>You must click the apply template button to change your template</t>
-  </si>
-  <si>
-    <t>Trebuie să faceți clic pe butonul Aplicați șablon pentru a vă schimba șablonul</t>
-  </si>
-  <si>
-    <t>Search by criteria</t>
-  </si>
-  <si>
-    <t>Cauta dupa criterii</t>
-  </si>
-  <si>
-    <t>Order ID</t>
-  </si>
-  <si>
-    <t>Date from</t>
-  </si>
-  <si>
-    <t>Data din</t>
-  </si>
-  <si>
-    <t>Set the orders from date</t>
-  </si>
-  <si>
-    <t>Setați comenzile de la data</t>
-  </si>
-  <si>
-    <t>Date to</t>
-  </si>
-  <si>
-    <t>Data la</t>
-  </si>
-  <si>
-    <t>Set the orders to date</t>
-  </si>
-  <si>
-    <t>Setați comenzile la zi</t>
-  </si>
-  <si>
-    <t>Order amount from</t>
-  </si>
-  <si>
-    <t>Suma comanda de la</t>
-  </si>
-  <si>
-    <t>Show the order with minimum amount</t>
-  </si>
-  <si>
-    <t>Afișați comanda cu suma minimă</t>
-  </si>
-  <si>
-    <t>Order amount to</t>
-  </si>
-  <si>
-    <t>Valoarea comenzii la</t>
-  </si>
-  <si>
-    <t>Show the order with maximum amount</t>
-  </si>
-  <si>
-    <t>Afișați comanda cu suma maximă</t>
-  </si>
-  <si>
-    <t>Search by products...</t>
-  </si>
-  <si>
-    <t>Cauta dupa produse...</t>
-  </si>
-  <si>
-    <t>Search by products</t>
-  </si>
-  <si>
-    <t>Cauta dupa produse</t>
-  </si>
-  <si>
-    <t>Payment Status</t>
-  </si>
-  <si>
-    <t>Starea plății</t>
-  </si>
-  <si>
-    <t>Free search by phone, name, email etc...</t>
-  </si>
-  <si>
-    <t>Căutare gratuită după telefon, nume, e-mail etc...</t>
-  </si>
-  <si>
-    <t>Submit this criteria</t>
-  </si>
-  <si>
-    <t>Trimiteți acest criteriu</t>
-  </si>
-  <si>
-    <t>Reset filter</t>
-  </si>
-  <si>
-    <t>Resetați filtrul</t>
-  </si>
-  <si>
-    <t>Export all</t>
-  </si>
-  <si>
-    <t>Exportați tot</t>
-  </si>
-  <si>
-    <t>Select sorting</t>
-  </si>
-  <si>
-    <t>Selectați sortarea</t>
-  </si>
-  <si>
-    <t>Order date</t>
-  </si>
-  <si>
-    <t>Data comandă</t>
-  </si>
-  <si>
-    <t>[New &gt; Old]</t>
-  </si>
-  <si>
-    <t>[Nou &gt; Vechi]</t>
-  </si>
-  <si>
-    <t>[Old &gt; New]</t>
-  </si>
-  <si>
-    <t>[Vechi &gt; Nou]</t>
-  </si>
-  <si>
-    <t>[High &gt; Low]</t>
-  </si>
-  <si>
-    <t>[Ridicat &gt; Scăzut]</t>
-  </si>
-  <si>
-    <t>[Low &gt; High]</t>
-  </si>
-  <si>
-    <t>[Scăzut &gt; Ridicat]</t>
-  </si>
-  <si>
-    <t>Order completed</t>
-  </si>
-  <si>
-    <t>comandă finalizată</t>
-  </si>
-  <si>
-    <t>translations from the multilnaguage module have been found in your database.</t>
-  </si>
-  <si>
-    <t>traduceri din modulul multilingv au fost găsite în baza dvs. de date.</t>
-  </si>
-  <si>
-    <t>Warning! Changing the default language can break translations on your site.</t>
-  </si>
-  <si>
-    <t>Avertizare! Schimbarea limbii implicite poate întrerupe traducerile de pe site-ul dvs.</t>
-  </si>
-  <si>
-    <t>Are you sure want to continue?</t>
-  </si>
-  <si>
-    <t>Sigur vrei să continui?</t>
-  </si>
-  <si>
-    <t>Warning! The changing default language maybe will break your site.</t>
-  </si>
-  <si>
-    <t>Avertizare! Schimbarea limbii implicite poate distruge site-ul dvs.</t>
-  </si>
-  <si>
-    <t>Shipping details</t>
-  </si>
-  <si>
-    <t>Detalii de livrare</t>
-  </si>
-  <si>
-    <t>Shipping type</t>
-  </si>
-  <si>
-    <t>Tip de livrare</t>
-  </si>
-  <si>
-    <t>the order is not completed yet</t>
-  </si>
-  <si>
-    <t>comanda nu este încă finalizată</t>
-  </si>
-  <si>
-    <t>the order is completed</t>
-  </si>
-  <si>
-    <t>comanda este finalizată</t>
-  </si>
-  <si>
-    <t>Created at</t>
-  </si>
-  <si>
-    <t>Creat la</t>
-  </si>
-  <si>
-    <t>Updated at</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick view </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vizualizare rapidă </t>
-  </si>
-  <si>
-    <t>Replace language values</t>
-  </si>
-  <si>
-    <t>Înlocuiți valorile limbii</t>
-  </si>
-  <si>
-    <t>Translations are imported</t>
-  </si>
-  <si>
-    <t>Traducerile sunt importate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traducerile nu au fost găsite în baza de date. Doriți să importați traduceri? </t>
   </si>
 </sst>
 </file>
@@ -18892,7 +18337,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3217"/>
+  <dimension ref="A1:E3119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -69605,7 +69050,7 @@
         <v>5732</v>
       </c>
       <c r="D2983" t="s">
-        <v>3819</v>
+        <v>5733</v>
       </c>
       <c r="E2983" t="s">
         <v>8</v>
@@ -69619,10 +69064,10 @@
         <v>5</v>
       </c>
       <c r="C2984" t="s">
-        <v>5733</v>
+        <v>5734</v>
       </c>
       <c r="D2984" t="s">
-        <v>5734</v>
+        <v>5735</v>
       </c>
       <c r="E2984" t="s">
         <v>8</v>
@@ -69636,10 +69081,10 @@
         <v>5</v>
       </c>
       <c r="C2985" t="s">
-        <v>5735</v>
+        <v>5736</v>
       </c>
       <c r="D2985" t="s">
-        <v>5736</v>
+        <v>5737</v>
       </c>
       <c r="E2985" t="s">
         <v>8</v>
@@ -69653,10 +69098,10 @@
         <v>5</v>
       </c>
       <c r="C2986" t="s">
-        <v>5737</v>
+        <v>5738</v>
       </c>
       <c r="D2986" t="s">
-        <v>5738</v>
+        <v>5739</v>
       </c>
       <c r="E2986" t="s">
         <v>8</v>
@@ -69670,10 +69115,10 @@
         <v>5</v>
       </c>
       <c r="C2987" t="s">
-        <v>5739</v>
+        <v>5740</v>
       </c>
       <c r="D2987" t="s">
-        <v>5740</v>
+        <v>5741</v>
       </c>
       <c r="E2987" t="s">
         <v>8</v>
@@ -69687,10 +69132,10 @@
         <v>5</v>
       </c>
       <c r="C2988" t="s">
-        <v>5741</v>
+        <v>5742</v>
       </c>
       <c r="D2988" t="s">
-        <v>5742</v>
+        <v>5743</v>
       </c>
       <c r="E2988" t="s">
         <v>8</v>
@@ -69704,10 +69149,10 @@
         <v>5</v>
       </c>
       <c r="C2989" t="s">
-        <v>5743</v>
+        <v>5744</v>
       </c>
       <c r="D2989" t="s">
-        <v>5744</v>
+        <v>5745</v>
       </c>
       <c r="E2989" t="s">
         <v>8</v>
@@ -69721,10 +69166,10 @@
         <v>5</v>
       </c>
       <c r="C2990" t="s">
-        <v>5745</v>
+        <v>5746</v>
       </c>
       <c r="D2990" t="s">
-        <v>5746</v>
+        <v>5747</v>
       </c>
       <c r="E2990" t="s">
         <v>8</v>
@@ -69738,10 +69183,10 @@
         <v>5</v>
       </c>
       <c r="C2991" t="s">
-        <v>5747</v>
+        <v>5748</v>
       </c>
       <c r="D2991" t="s">
-        <v>5748</v>
+        <v>5749</v>
       </c>
       <c r="E2991" t="s">
         <v>8</v>
@@ -69755,10 +69200,10 @@
         <v>5</v>
       </c>
       <c r="C2992" t="s">
-        <v>5749</v>
+        <v>5750</v>
       </c>
       <c r="D2992" t="s">
-        <v>5750</v>
+        <v>5751</v>
       </c>
       <c r="E2992" t="s">
         <v>8</v>
@@ -69772,10 +69217,10 @@
         <v>5</v>
       </c>
       <c r="C2993" t="s">
-        <v>5751</v>
+        <v>5752</v>
       </c>
       <c r="D2993" t="s">
-        <v>5752</v>
+        <v>5753</v>
       </c>
       <c r="E2993" t="s">
         <v>8</v>
@@ -69789,10 +69234,10 @@
         <v>5</v>
       </c>
       <c r="C2994" t="s">
-        <v>5753</v>
+        <v>5754</v>
       </c>
       <c r="D2994" t="s">
-        <v>5754</v>
+        <v>5755</v>
       </c>
       <c r="E2994" t="s">
         <v>8</v>
@@ -69806,10 +69251,10 @@
         <v>5</v>
       </c>
       <c r="C2995" t="s">
-        <v>5755</v>
+        <v>5756</v>
       </c>
       <c r="D2995" t="s">
-        <v>5756</v>
+        <v>5757</v>
       </c>
       <c r="E2995" t="s">
         <v>8</v>
@@ -69823,10 +69268,10 @@
         <v>5</v>
       </c>
       <c r="C2996" t="s">
-        <v>5757</v>
+        <v>5758</v>
       </c>
       <c r="D2996" t="s">
-        <v>5758</v>
+        <v>5759</v>
       </c>
       <c r="E2996" t="s">
         <v>8</v>
@@ -69840,10 +69285,10 @@
         <v>5</v>
       </c>
       <c r="C2997" t="s">
-        <v>5759</v>
+        <v>5760</v>
       </c>
       <c r="D2997" t="s">
-        <v>5760</v>
+        <v>5761</v>
       </c>
       <c r="E2997" t="s">
         <v>8</v>
@@ -69857,10 +69302,10 @@
         <v>5</v>
       </c>
       <c r="C2998" t="s">
-        <v>5761</v>
+        <v>5762</v>
       </c>
       <c r="D2998" t="s">
-        <v>5762</v>
+        <v>5763</v>
       </c>
       <c r="E2998" t="s">
         <v>8</v>
@@ -69874,10 +69319,10 @@
         <v>5</v>
       </c>
       <c r="C2999" t="s">
-        <v>5763</v>
+        <v>5764</v>
       </c>
       <c r="D2999" t="s">
-        <v>5764</v>
+        <v>5765</v>
       </c>
       <c r="E2999" t="s">
         <v>8</v>
@@ -69891,10 +69336,10 @@
         <v>5</v>
       </c>
       <c r="C3000" t="s">
-        <v>5765</v>
+        <v>5766</v>
       </c>
       <c r="D3000" t="s">
-        <v>5766</v>
+        <v>5767</v>
       </c>
       <c r="E3000" t="s">
         <v>8</v>
@@ -69908,10 +69353,10 @@
         <v>5</v>
       </c>
       <c r="C3001" t="s">
-        <v>5767</v>
+        <v>5768</v>
       </c>
       <c r="D3001" t="s">
-        <v>5768</v>
+        <v>5769</v>
       </c>
       <c r="E3001" t="s">
         <v>8</v>
@@ -69925,10 +69370,10 @@
         <v>5</v>
       </c>
       <c r="C3002" t="s">
-        <v>5769</v>
+        <v>5770</v>
       </c>
       <c r="D3002" t="s">
-        <v>5770</v>
+        <v>5771</v>
       </c>
       <c r="E3002" t="s">
         <v>8</v>
@@ -69942,10 +69387,10 @@
         <v>5</v>
       </c>
       <c r="C3003" t="s">
-        <v>5771</v>
+        <v>5772</v>
       </c>
       <c r="D3003" t="s">
-        <v>5772</v>
+        <v>5773</v>
       </c>
       <c r="E3003" t="s">
         <v>8</v>
@@ -69959,10 +69404,10 @@
         <v>5</v>
       </c>
       <c r="C3004" t="s">
-        <v>5773</v>
+        <v>5774</v>
       </c>
       <c r="D3004" t="s">
-        <v>5774</v>
+        <v>5775</v>
       </c>
       <c r="E3004" t="s">
         <v>8</v>
@@ -69976,10 +69421,10 @@
         <v>5</v>
       </c>
       <c r="C3005" t="s">
-        <v>5775</v>
+        <v>5776</v>
       </c>
       <c r="D3005" t="s">
-        <v>5776</v>
+        <v>5777</v>
       </c>
       <c r="E3005" t="s">
         <v>8</v>
@@ -69993,10 +69438,10 @@
         <v>5</v>
       </c>
       <c r="C3006" t="s">
-        <v>5777</v>
+        <v>5778</v>
       </c>
       <c r="D3006" t="s">
-        <v>5778</v>
+        <v>5779</v>
       </c>
       <c r="E3006" t="s">
         <v>8</v>
@@ -70010,10 +69455,10 @@
         <v>5</v>
       </c>
       <c r="C3007" t="s">
-        <v>5779</v>
+        <v>5780</v>
       </c>
       <c r="D3007" t="s">
-        <v>5780</v>
+        <v>5781</v>
       </c>
       <c r="E3007" t="s">
         <v>8</v>
@@ -70027,10 +69472,10 @@
         <v>5</v>
       </c>
       <c r="C3008" t="s">
-        <v>5781</v>
+        <v>5782</v>
       </c>
       <c r="D3008" t="s">
-        <v>5782</v>
+        <v>5783</v>
       </c>
       <c r="E3008" t="s">
         <v>8</v>
@@ -70044,10 +69489,10 @@
         <v>5</v>
       </c>
       <c r="C3009" t="s">
-        <v>5783</v>
+        <v>5784</v>
       </c>
       <c r="D3009" t="s">
-        <v>5784</v>
+        <v>5785</v>
       </c>
       <c r="E3009" t="s">
         <v>8</v>
@@ -70061,10 +69506,10 @@
         <v>5</v>
       </c>
       <c r="C3010" t="s">
-        <v>5785</v>
+        <v>5786</v>
       </c>
       <c r="D3010" t="s">
-        <v>5786</v>
+        <v>5787</v>
       </c>
       <c r="E3010" t="s">
         <v>8</v>
@@ -70078,10 +69523,10 @@
         <v>5</v>
       </c>
       <c r="C3011" t="s">
-        <v>5787</v>
+        <v>5788</v>
       </c>
       <c r="D3011" t="s">
-        <v>5788</v>
+        <v>5789</v>
       </c>
       <c r="E3011" t="s">
         <v>8</v>
@@ -70095,10 +69540,10 @@
         <v>5</v>
       </c>
       <c r="C3012" t="s">
-        <v>5789</v>
+        <v>5790</v>
       </c>
       <c r="D3012" t="s">
-        <v>5789</v>
+        <v>5790</v>
       </c>
       <c r="E3012" t="s">
         <v>8</v>
@@ -70112,10 +69557,10 @@
         <v>5</v>
       </c>
       <c r="C3013" t="s">
-        <v>5790</v>
+        <v>5791</v>
       </c>
       <c r="D3013" t="s">
-        <v>5790</v>
+        <v>5791</v>
       </c>
       <c r="E3013" t="s">
         <v>8</v>
@@ -70129,10 +69574,10 @@
         <v>5</v>
       </c>
       <c r="C3014" t="s">
-        <v>5791</v>
+        <v>5792</v>
       </c>
       <c r="D3014" t="s">
-        <v>5792</v>
+        <v>5793</v>
       </c>
       <c r="E3014" t="s">
         <v>8</v>
@@ -70146,10 +69591,10 @@
         <v>5</v>
       </c>
       <c r="C3015" t="s">
-        <v>5793</v>
+        <v>5794</v>
       </c>
       <c r="D3015" t="s">
-        <v>5794</v>
+        <v>5795</v>
       </c>
       <c r="E3015" t="s">
         <v>8</v>
@@ -70163,10 +69608,10 @@
         <v>5</v>
       </c>
       <c r="C3016" t="s">
-        <v>5795</v>
+        <v>5796</v>
       </c>
       <c r="D3016" t="s">
-        <v>5796</v>
+        <v>5797</v>
       </c>
       <c r="E3016" t="s">
         <v>8</v>
@@ -70180,7 +69625,7 @@
         <v>5</v>
       </c>
       <c r="C3017" t="s">
-        <v>5797</v>
+        <v>5798</v>
       </c>
       <c r="D3017" t="s">
         <v>3306</v>
@@ -70197,10 +69642,10 @@
         <v>5</v>
       </c>
       <c r="C3018" t="s">
-        <v>5798</v>
+        <v>5799</v>
       </c>
       <c r="D3018" t="s">
-        <v>5799</v>
+        <v>5800</v>
       </c>
       <c r="E3018" t="s">
         <v>8</v>
@@ -70214,10 +69659,10 @@
         <v>5</v>
       </c>
       <c r="C3019" t="s">
-        <v>5800</v>
+        <v>5801</v>
       </c>
       <c r="D3019" t="s">
-        <v>5801</v>
+        <v>5802</v>
       </c>
       <c r="E3019" t="s">
         <v>8</v>
@@ -70231,10 +69676,10 @@
         <v>5</v>
       </c>
       <c r="C3020" t="s">
-        <v>5802</v>
+        <v>5803</v>
       </c>
       <c r="D3020" t="s">
-        <v>1554</v>
+        <v>5804</v>
       </c>
       <c r="E3020" t="s">
         <v>8</v>
@@ -70248,10 +69693,10 @@
         <v>5</v>
       </c>
       <c r="C3021" t="s">
-        <v>5803</v>
+        <v>5805</v>
       </c>
       <c r="D3021" t="s">
-        <v>5804</v>
+        <v>5806</v>
       </c>
       <c r="E3021" t="s">
         <v>8</v>
@@ -70265,10 +69710,10 @@
         <v>5</v>
       </c>
       <c r="C3022" t="s">
-        <v>5805</v>
+        <v>5807</v>
       </c>
       <c r="D3022" t="s">
-        <v>5806</v>
+        <v>5808</v>
       </c>
       <c r="E3022" t="s">
         <v>8</v>
@@ -70282,10 +69727,10 @@
         <v>5</v>
       </c>
       <c r="C3023" t="s">
-        <v>5807</v>
+        <v>5809</v>
       </c>
       <c r="D3023" t="s">
-        <v>5808</v>
+        <v>5810</v>
       </c>
       <c r="E3023" t="s">
         <v>8</v>
@@ -70299,10 +69744,10 @@
         <v>5</v>
       </c>
       <c r="C3024" t="s">
-        <v>5809</v>
+        <v>5811</v>
       </c>
       <c r="D3024" t="s">
-        <v>5810</v>
+        <v>5812</v>
       </c>
       <c r="E3024" t="s">
         <v>8</v>
@@ -70316,10 +69761,10 @@
         <v>5</v>
       </c>
       <c r="C3025" t="s">
-        <v>5811</v>
+        <v>5813</v>
       </c>
       <c r="D3025" t="s">
-        <v>5812</v>
+        <v>5814</v>
       </c>
       <c r="E3025" t="s">
         <v>8</v>
@@ -70333,10 +69778,10 @@
         <v>5</v>
       </c>
       <c r="C3026" t="s">
-        <v>5813</v>
+        <v>5815</v>
       </c>
       <c r="D3026" t="s">
-        <v>5814</v>
+        <v>5816</v>
       </c>
       <c r="E3026" t="s">
         <v>8</v>
@@ -70350,10 +69795,10 @@
         <v>5</v>
       </c>
       <c r="C3027" t="s">
-        <v>5815</v>
+        <v>5817</v>
       </c>
       <c r="D3027" t="s">
-        <v>5816</v>
+        <v>5818</v>
       </c>
       <c r="E3027" t="s">
         <v>8</v>
@@ -70367,10 +69812,10 @@
         <v>5</v>
       </c>
       <c r="C3028" t="s">
-        <v>5817</v>
+        <v>5819</v>
       </c>
       <c r="D3028" t="s">
-        <v>5818</v>
+        <v>5820</v>
       </c>
       <c r="E3028" t="s">
         <v>8</v>
@@ -70384,10 +69829,10 @@
         <v>5</v>
       </c>
       <c r="C3029" t="s">
-        <v>5819</v>
+        <v>5821</v>
       </c>
       <c r="D3029" t="s">
-        <v>5820</v>
+        <v>5822</v>
       </c>
       <c r="E3029" t="s">
         <v>8</v>
@@ -70401,10 +69846,10 @@
         <v>5</v>
       </c>
       <c r="C3030" t="s">
-        <v>5821</v>
+        <v>5823</v>
       </c>
       <c r="D3030" t="s">
-        <v>5822</v>
+        <v>5824</v>
       </c>
       <c r="E3030" t="s">
         <v>8</v>
@@ -70418,7 +69863,7 @@
         <v>5</v>
       </c>
       <c r="C3031" t="s">
-        <v>5823</v>
+        <v>5825</v>
       </c>
       <c r="D3031" t="s">
         <v>1109</v>
@@ -70435,10 +69880,10 @@
         <v>5</v>
       </c>
       <c r="C3032" t="s">
-        <v>5824</v>
+        <v>5826</v>
       </c>
       <c r="D3032" t="s">
-        <v>5825</v>
+        <v>5827</v>
       </c>
       <c r="E3032" t="s">
         <v>8</v>
@@ -70452,10 +69897,10 @@
         <v>5</v>
       </c>
       <c r="C3033" t="s">
-        <v>5826</v>
+        <v>5828</v>
       </c>
       <c r="D3033" t="s">
-        <v>5827</v>
+        <v>5829</v>
       </c>
       <c r="E3033" t="s">
         <v>8</v>
@@ -70469,10 +69914,10 @@
         <v>5</v>
       </c>
       <c r="C3034" t="s">
-        <v>5828</v>
+        <v>5830</v>
       </c>
       <c r="D3034" t="s">
-        <v>5829</v>
+        <v>5831</v>
       </c>
       <c r="E3034" t="s">
         <v>8</v>
@@ -70486,10 +69931,10 @@
         <v>5</v>
       </c>
       <c r="C3035" t="s">
-        <v>5830</v>
+        <v>5832</v>
       </c>
       <c r="D3035" t="s">
-        <v>5831</v>
+        <v>5833</v>
       </c>
       <c r="E3035" t="s">
         <v>8</v>
@@ -70503,10 +69948,10 @@
         <v>5</v>
       </c>
       <c r="C3036" t="s">
-        <v>5832</v>
+        <v>5834</v>
       </c>
       <c r="D3036" t="s">
-        <v>5833</v>
+        <v>5835</v>
       </c>
       <c r="E3036" t="s">
         <v>8</v>
@@ -70520,10 +69965,10 @@
         <v>5</v>
       </c>
       <c r="C3037" t="s">
-        <v>5834</v>
+        <v>5836</v>
       </c>
       <c r="D3037" t="s">
-        <v>5835</v>
+        <v>5837</v>
       </c>
       <c r="E3037" t="s">
         <v>8</v>
@@ -70537,10 +69982,10 @@
         <v>5</v>
       </c>
       <c r="C3038" t="s">
-        <v>5836</v>
+        <v>5838</v>
       </c>
       <c r="D3038" t="s">
-        <v>5837</v>
+        <v>5839</v>
       </c>
       <c r="E3038" t="s">
         <v>8</v>
@@ -70554,10 +69999,10 @@
         <v>5</v>
       </c>
       <c r="C3039" t="s">
-        <v>5838</v>
+        <v>5840</v>
       </c>
       <c r="D3039" t="s">
-        <v>5839</v>
+        <v>5841</v>
       </c>
       <c r="E3039" t="s">
         <v>8</v>
@@ -70571,10 +70016,10 @@
         <v>5</v>
       </c>
       <c r="C3040" t="s">
-        <v>5840</v>
+        <v>5842</v>
       </c>
       <c r="D3040" t="s">
-        <v>5841</v>
+        <v>5843</v>
       </c>
       <c r="E3040" t="s">
         <v>8</v>
@@ -70588,10 +70033,10 @@
         <v>5</v>
       </c>
       <c r="C3041" t="s">
-        <v>5842</v>
+        <v>5844</v>
       </c>
       <c r="D3041" t="s">
-        <v>5843</v>
+        <v>5845</v>
       </c>
       <c r="E3041" t="s">
         <v>8</v>
@@ -70605,10 +70050,10 @@
         <v>5</v>
       </c>
       <c r="C3042" t="s">
-        <v>5844</v>
+        <v>5846</v>
       </c>
       <c r="D3042" t="s">
-        <v>5845</v>
+        <v>5847</v>
       </c>
       <c r="E3042" t="s">
         <v>8</v>
@@ -70622,10 +70067,10 @@
         <v>5</v>
       </c>
       <c r="C3043" t="s">
-        <v>5846</v>
+        <v>5848</v>
       </c>
       <c r="D3043" t="s">
-        <v>5847</v>
+        <v>5849</v>
       </c>
       <c r="E3043" t="s">
         <v>8</v>
@@ -70639,10 +70084,10 @@
         <v>5</v>
       </c>
       <c r="C3044" t="s">
-        <v>5848</v>
+        <v>5850</v>
       </c>
       <c r="D3044" t="s">
-        <v>5849</v>
+        <v>5851</v>
       </c>
       <c r="E3044" t="s">
         <v>8</v>
@@ -70656,10 +70101,10 @@
         <v>5</v>
       </c>
       <c r="C3045" t="s">
-        <v>5850</v>
+        <v>5852</v>
       </c>
       <c r="D3045" t="s">
-        <v>5851</v>
+        <v>5853</v>
       </c>
       <c r="E3045" t="s">
         <v>8</v>
@@ -70673,10 +70118,10 @@
         <v>5</v>
       </c>
       <c r="C3046" t="s">
-        <v>5852</v>
+        <v>5854</v>
       </c>
       <c r="D3046" t="s">
-        <v>5853</v>
+        <v>5855</v>
       </c>
       <c r="E3046" t="s">
         <v>8</v>
@@ -70690,7 +70135,7 @@
         <v>5</v>
       </c>
       <c r="C3047" t="s">
-        <v>5854</v>
+        <v>5856</v>
       </c>
       <c r="D3047" t="s">
         <v>1948</v>
@@ -70707,7 +70152,7 @@
         <v>5</v>
       </c>
       <c r="C3048" t="s">
-        <v>5855</v>
+        <v>5857</v>
       </c>
       <c r="D3048" t="s">
         <v>3111</v>
@@ -70724,7 +70169,7 @@
         <v>5</v>
       </c>
       <c r="C3049" t="s">
-        <v>5856</v>
+        <v>5858</v>
       </c>
       <c r="D3049" t="s">
         <v>803</v>
@@ -70741,10 +70186,10 @@
         <v>5</v>
       </c>
       <c r="C3050" t="s">
-        <v>5857</v>
+        <v>5859</v>
       </c>
       <c r="D3050" t="s">
-        <v>1746</v>
+        <v>5860</v>
       </c>
       <c r="E3050" t="s">
         <v>8</v>
@@ -70758,10 +70203,10 @@
         <v>5</v>
       </c>
       <c r="C3051" t="s">
-        <v>5858</v>
+        <v>5861</v>
       </c>
       <c r="D3051" t="s">
-        <v>5859</v>
+        <v>5862</v>
       </c>
       <c r="E3051" t="s">
         <v>8</v>
@@ -70775,10 +70220,10 @@
         <v>5</v>
       </c>
       <c r="C3052" t="s">
-        <v>5860</v>
+        <v>5863</v>
       </c>
       <c r="D3052" t="s">
-        <v>5861</v>
+        <v>5864</v>
       </c>
       <c r="E3052" t="s">
         <v>8</v>
@@ -70792,10 +70237,10 @@
         <v>5</v>
       </c>
       <c r="C3053" t="s">
-        <v>5862</v>
+        <v>5865</v>
       </c>
       <c r="D3053" t="s">
-        <v>5863</v>
+        <v>5866</v>
       </c>
       <c r="E3053" t="s">
         <v>8</v>
@@ -70809,10 +70254,10 @@
         <v>5</v>
       </c>
       <c r="C3054" t="s">
-        <v>5864</v>
+        <v>5867</v>
       </c>
       <c r="D3054" t="s">
-        <v>5865</v>
+        <v>5868</v>
       </c>
       <c r="E3054" t="s">
         <v>8</v>
@@ -70826,10 +70271,10 @@
         <v>5</v>
       </c>
       <c r="C3055" t="s">
-        <v>5866</v>
+        <v>5869</v>
       </c>
       <c r="D3055" t="s">
-        <v>5867</v>
+        <v>5870</v>
       </c>
       <c r="E3055" t="s">
         <v>8</v>
@@ -70843,10 +70288,10 @@
         <v>5</v>
       </c>
       <c r="C3056" t="s">
-        <v>5868</v>
+        <v>5871</v>
       </c>
       <c r="D3056" t="s">
-        <v>5869</v>
+        <v>5872</v>
       </c>
       <c r="E3056" t="s">
         <v>8</v>
@@ -70860,10 +70305,10 @@
         <v>5</v>
       </c>
       <c r="C3057" t="s">
-        <v>5870</v>
+        <v>5873</v>
       </c>
       <c r="D3057" t="s">
-        <v>5871</v>
+        <v>5874</v>
       </c>
       <c r="E3057" t="s">
         <v>8</v>
@@ -70877,10 +70322,10 @@
         <v>5</v>
       </c>
       <c r="C3058" t="s">
-        <v>5872</v>
+        <v>5875</v>
       </c>
       <c r="D3058" t="s">
-        <v>4205</v>
+        <v>5876</v>
       </c>
       <c r="E3058" t="s">
         <v>8</v>
@@ -70894,10 +70339,10 @@
         <v>5</v>
       </c>
       <c r="C3059" t="s">
-        <v>5873</v>
+        <v>5877</v>
       </c>
       <c r="D3059" t="s">
-        <v>5874</v>
+        <v>5878</v>
       </c>
       <c r="E3059" t="s">
         <v>8</v>
@@ -70911,10 +70356,10 @@
         <v>5</v>
       </c>
       <c r="C3060" t="s">
-        <v>5875</v>
+        <v>5879</v>
       </c>
       <c r="D3060" t="s">
-        <v>5876</v>
+        <v>5880</v>
       </c>
       <c r="E3060" t="s">
         <v>8</v>
@@ -70928,10 +70373,10 @@
         <v>5</v>
       </c>
       <c r="C3061" t="s">
-        <v>5877</v>
+        <v>5881</v>
       </c>
       <c r="D3061" t="s">
-        <v>5878</v>
+        <v>5882</v>
       </c>
       <c r="E3061" t="s">
         <v>8</v>
@@ -70942,13 +70387,13 @@
         <v>5</v>
       </c>
       <c r="B3062" t="s">
-        <v>5879</v>
+        <v>5883</v>
       </c>
       <c r="C3062" t="s">
-        <v>5880</v>
+        <v>5884</v>
       </c>
       <c r="D3062" t="s">
-        <v>5881</v>
+        <v>5885</v>
       </c>
       <c r="E3062" t="s">
         <v>8</v>
@@ -70962,10 +70407,10 @@
         <v>5</v>
       </c>
       <c r="C3063" t="s">
-        <v>5882</v>
+        <v>5886</v>
       </c>
       <c r="D3063" t="s">
-        <v>5883</v>
+        <v>5887</v>
       </c>
       <c r="E3063" t="s">
         <v>8</v>
@@ -70979,10 +70424,10 @@
         <v>5</v>
       </c>
       <c r="C3064" t="s">
-        <v>5884</v>
+        <v>5888</v>
       </c>
       <c r="D3064" t="s">
-        <v>5885</v>
+        <v>5889</v>
       </c>
       <c r="E3064" t="s">
         <v>8</v>
@@ -70996,10 +70441,10 @@
         <v>5</v>
       </c>
       <c r="C3065" t="s">
-        <v>5886</v>
+        <v>5890</v>
       </c>
       <c r="D3065" t="s">
-        <v>5887</v>
+        <v>5891</v>
       </c>
       <c r="E3065" t="s">
         <v>8</v>
@@ -71013,10 +70458,10 @@
         <v>5</v>
       </c>
       <c r="C3066" t="s">
-        <v>5888</v>
+        <v>5892</v>
       </c>
       <c r="D3066" t="s">
-        <v>5888</v>
+        <v>5893</v>
       </c>
       <c r="E3066" t="s">
         <v>8</v>
@@ -71030,10 +70475,10 @@
         <v>5</v>
       </c>
       <c r="C3067" t="s">
-        <v>5889</v>
+        <v>5894</v>
       </c>
       <c r="D3067" t="s">
-        <v>5890</v>
+        <v>969</v>
       </c>
       <c r="E3067" t="s">
         <v>8</v>
@@ -71047,10 +70492,10 @@
         <v>5</v>
       </c>
       <c r="C3068" t="s">
-        <v>5891</v>
+        <v>5895</v>
       </c>
       <c r="D3068" t="s">
-        <v>5892</v>
+        <v>5896</v>
       </c>
       <c r="E3068" t="s">
         <v>8</v>
@@ -71064,10 +70509,10 @@
         <v>5</v>
       </c>
       <c r="C3069" t="s">
-        <v>5893</v>
+        <v>5897</v>
       </c>
       <c r="D3069" t="s">
-        <v>5894</v>
+        <v>5898</v>
       </c>
       <c r="E3069" t="s">
         <v>8</v>
@@ -71081,10 +70526,10 @@
         <v>5</v>
       </c>
       <c r="C3070" t="s">
-        <v>5895</v>
+        <v>5899</v>
       </c>
       <c r="D3070" t="s">
-        <v>5896</v>
+        <v>5899</v>
       </c>
       <c r="E3070" t="s">
         <v>8</v>
@@ -71098,10 +70543,10 @@
         <v>5</v>
       </c>
       <c r="C3071" t="s">
-        <v>5897</v>
+        <v>5900</v>
       </c>
       <c r="D3071" t="s">
-        <v>5898</v>
+        <v>5901</v>
       </c>
       <c r="E3071" t="s">
         <v>8</v>
@@ -71115,10 +70560,10 @@
         <v>5</v>
       </c>
       <c r="C3072" t="s">
-        <v>5899</v>
+        <v>5902</v>
       </c>
       <c r="D3072" t="s">
-        <v>5900</v>
+        <v>5902</v>
       </c>
       <c r="E3072" t="s">
         <v>8</v>
@@ -71132,10 +70577,10 @@
         <v>5</v>
       </c>
       <c r="C3073" t="s">
-        <v>5901</v>
+        <v>5903</v>
       </c>
       <c r="D3073" t="s">
-        <v>5902</v>
+        <v>5903</v>
       </c>
       <c r="E3073" t="s">
         <v>8</v>
@@ -71149,10 +70594,10 @@
         <v>5</v>
       </c>
       <c r="C3074" t="s">
-        <v>5903</v>
+        <v>5904</v>
       </c>
       <c r="D3074" t="s">
-        <v>5904</v>
+        <v>5905</v>
       </c>
       <c r="E3074" t="s">
         <v>8</v>
@@ -71166,10 +70611,10 @@
         <v>5</v>
       </c>
       <c r="C3075" t="s">
-        <v>5905</v>
+        <v>5906</v>
       </c>
       <c r="D3075" t="s">
-        <v>5906</v>
+        <v>5907</v>
       </c>
       <c r="E3075" t="s">
         <v>8</v>
@@ -71183,10 +70628,10 @@
         <v>5</v>
       </c>
       <c r="C3076" t="s">
-        <v>5907</v>
+        <v>5908</v>
       </c>
       <c r="D3076" t="s">
-        <v>5908</v>
+        <v>5909</v>
       </c>
       <c r="E3076" t="s">
         <v>8</v>
@@ -71200,10 +70645,10 @@
         <v>5</v>
       </c>
       <c r="C3077" t="s">
-        <v>5909</v>
+        <v>5910</v>
       </c>
       <c r="D3077" t="s">
-        <v>5910</v>
+        <v>5911</v>
       </c>
       <c r="E3077" t="s">
         <v>8</v>
@@ -71217,10 +70662,10 @@
         <v>5</v>
       </c>
       <c r="C3078" t="s">
-        <v>5911</v>
+        <v>5912</v>
       </c>
       <c r="D3078" t="s">
-        <v>5912</v>
+        <v>5913</v>
       </c>
       <c r="E3078" t="s">
         <v>8</v>
@@ -71234,10 +70679,10 @@
         <v>5</v>
       </c>
       <c r="C3079" t="s">
-        <v>5913</v>
+        <v>5914</v>
       </c>
       <c r="D3079" t="s">
-        <v>5914</v>
+        <v>5915</v>
       </c>
       <c r="E3079" t="s">
         <v>8</v>
@@ -71251,10 +70696,10 @@
         <v>5</v>
       </c>
       <c r="C3080" t="s">
-        <v>5915</v>
+        <v>5916</v>
       </c>
       <c r="D3080" t="s">
-        <v>5916</v>
+        <v>5917</v>
       </c>
       <c r="E3080" t="s">
         <v>8</v>
@@ -71268,10 +70713,10 @@
         <v>5</v>
       </c>
       <c r="C3081" t="s">
-        <v>5917</v>
+        <v>5918</v>
       </c>
       <c r="D3081" t="s">
-        <v>5918</v>
+        <v>5919</v>
       </c>
       <c r="E3081" t="s">
         <v>8</v>
@@ -71285,10 +70730,10 @@
         <v>5</v>
       </c>
       <c r="C3082" t="s">
-        <v>5919</v>
+        <v>5920</v>
       </c>
       <c r="D3082" t="s">
-        <v>5920</v>
+        <v>5921</v>
       </c>
       <c r="E3082" t="s">
         <v>8</v>
@@ -71302,10 +70747,10 @@
         <v>5</v>
       </c>
       <c r="C3083" t="s">
-        <v>5921</v>
+        <v>5922</v>
       </c>
       <c r="D3083" t="s">
-        <v>5922</v>
+        <v>5923</v>
       </c>
       <c r="E3083" t="s">
         <v>8</v>
@@ -71319,10 +70764,10 @@
         <v>5</v>
       </c>
       <c r="C3084" t="s">
-        <v>5923</v>
+        <v>5924</v>
       </c>
       <c r="D3084" t="s">
-        <v>5924</v>
+        <v>5925</v>
       </c>
       <c r="E3084" t="s">
         <v>8</v>
@@ -71336,10 +70781,10 @@
         <v>5</v>
       </c>
       <c r="C3085" t="s">
-        <v>5925</v>
+        <v>5926</v>
       </c>
       <c r="D3085" t="s">
-        <v>5926</v>
+        <v>5927</v>
       </c>
       <c r="E3085" t="s">
         <v>8</v>
@@ -71353,10 +70798,10 @@
         <v>5</v>
       </c>
       <c r="C3086" t="s">
-        <v>5927</v>
+        <v>5928</v>
       </c>
       <c r="D3086" t="s">
-        <v>5928</v>
+        <v>5929</v>
       </c>
       <c r="E3086" t="s">
         <v>8</v>
@@ -71370,10 +70815,10 @@
         <v>5</v>
       </c>
       <c r="C3087" t="s">
-        <v>5929</v>
+        <v>5930</v>
       </c>
       <c r="D3087" t="s">
-        <v>5930</v>
+        <v>5931</v>
       </c>
       <c r="E3087" t="s">
         <v>8</v>
@@ -71387,7 +70832,7 @@
         <v>5</v>
       </c>
       <c r="C3088" t="s">
-        <v>5931</v>
+        <v>5932</v>
       </c>
       <c r="D3088" t="s">
         <v>5932</v>
@@ -71458,7 +70903,7 @@
         <v>5939</v>
       </c>
       <c r="D3092" t="s">
-        <v>1897</v>
+        <v>5940</v>
       </c>
       <c r="E3092" t="s">
         <v>8</v>
@@ -71472,10 +70917,10 @@
         <v>5</v>
       </c>
       <c r="C3093" t="s">
-        <v>5940</v>
+        <v>5941</v>
       </c>
       <c r="D3093" t="s">
-        <v>5941</v>
+        <v>5942</v>
       </c>
       <c r="E3093" t="s">
         <v>8</v>
@@ -71489,7 +70934,7 @@
         <v>5</v>
       </c>
       <c r="C3094" t="s">
-        <v>5942</v>
+        <v>5943</v>
       </c>
       <c r="D3094" t="s">
         <v>5943</v>
@@ -71743,11 +71188,11 @@
       <c r="B3109" t="s">
         <v>5</v>
       </c>
-      <c r="C3109" t="s">
-        <v>5972</v>
-      </c>
-      <c r="D3109" t="s">
-        <v>5973</v>
+      <c r="C3109">
+        <v>404</v>
+      </c>
+      <c r="D3109">
+        <v>404</v>
       </c>
       <c r="E3109" t="s">
         <v>8</v>
@@ -71760,11 +71205,11 @@
       <c r="B3110" t="s">
         <v>5</v>
       </c>
-      <c r="C3110">
-        <v>404</v>
-      </c>
-      <c r="D3110">
-        <v>404</v>
+      <c r="C3110" t="s">
+        <v>5972</v>
+      </c>
+      <c r="D3110" t="s">
+        <v>5973</v>
       </c>
       <c r="E3110" t="s">
         <v>8</v>
@@ -71781,7 +71226,7 @@
         <v>5974</v>
       </c>
       <c r="D3111" t="s">
-        <v>5974</v>
+        <v>5975</v>
       </c>
       <c r="E3111" t="s">
         <v>8</v>
@@ -71795,10 +71240,10 @@
         <v>5</v>
       </c>
       <c r="C3112" t="s">
-        <v>5975</v>
+        <v>5976</v>
       </c>
       <c r="D3112" t="s">
-        <v>5975</v>
+        <v>5977</v>
       </c>
       <c r="E3112" t="s">
         <v>8</v>
@@ -71812,10 +71257,10 @@
         <v>5</v>
       </c>
       <c r="C3113" t="s">
-        <v>5976</v>
+        <v>5978</v>
       </c>
       <c r="D3113" t="s">
-        <v>5977</v>
+        <v>5979</v>
       </c>
       <c r="E3113" t="s">
         <v>8</v>
@@ -71829,10 +71274,10 @@
         <v>5</v>
       </c>
       <c r="C3114" t="s">
-        <v>5978</v>
+        <v>5980</v>
       </c>
       <c r="D3114" t="s">
-        <v>5979</v>
+        <v>5981</v>
       </c>
       <c r="E3114" t="s">
         <v>8</v>
@@ -71846,10 +71291,10 @@
         <v>5</v>
       </c>
       <c r="C3115" t="s">
-        <v>5980</v>
+        <v>5982</v>
       </c>
       <c r="D3115" t="s">
-        <v>5981</v>
+        <v>5983</v>
       </c>
       <c r="E3115" t="s">
         <v>8</v>
@@ -71863,10 +71308,10 @@
         <v>5</v>
       </c>
       <c r="C3116" t="s">
-        <v>5982</v>
+        <v>5984</v>
       </c>
       <c r="D3116" t="s">
-        <v>5983</v>
+        <v>5984</v>
       </c>
       <c r="E3116" t="s">
         <v>8</v>
@@ -71880,10 +71325,10 @@
         <v>5</v>
       </c>
       <c r="C3117" t="s">
-        <v>5984</v>
+        <v>5985</v>
       </c>
       <c r="D3117" t="s">
-        <v>5985</v>
+        <v>5986</v>
       </c>
       <c r="E3117" t="s">
         <v>8</v>
@@ -71897,10 +71342,10 @@
         <v>5</v>
       </c>
       <c r="C3118" t="s">
-        <v>5986</v>
+        <v>5987</v>
       </c>
       <c r="D3118" t="s">
-        <v>5987</v>
+        <v>5988</v>
       </c>
       <c r="E3118" t="s">
         <v>8</v>
@@ -71914,1678 +71359,12 @@
         <v>5</v>
       </c>
       <c r="C3119" t="s">
-        <v>5988</v>
+        <v>5989</v>
       </c>
       <c r="D3119" t="s">
-        <v>5989</v>
+        <v>5990</v>
       </c>
       <c r="E3119" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3120" spans="1:5">
-      <c r="A3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3120" t="s">
-        <v>5990</v>
-      </c>
-      <c r="D3120" t="s">
-        <v>5991</v>
-      </c>
-      <c r="E3120" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3121" spans="1:5">
-      <c r="A3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3121" t="s">
-        <v>5992</v>
-      </c>
-      <c r="D3121" t="s">
-        <v>5993</v>
-      </c>
-      <c r="E3121" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3122" spans="1:5">
-      <c r="A3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3122" t="s">
-        <v>5994</v>
-      </c>
-      <c r="D3122" t="s">
-        <v>5995</v>
-      </c>
-      <c r="E3122" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3123" spans="1:5">
-      <c r="A3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3123" t="s">
-        <v>5996</v>
-      </c>
-      <c r="D3123" t="s">
-        <v>5997</v>
-      </c>
-      <c r="E3123" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3124" spans="1:5">
-      <c r="A3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3124" t="s">
-        <v>5998</v>
-      </c>
-      <c r="D3124" t="s">
-        <v>5999</v>
-      </c>
-      <c r="E3124" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3125" spans="1:5">
-      <c r="A3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3125" t="s">
-        <v>6000</v>
-      </c>
-      <c r="D3125" t="s">
-        <v>6001</v>
-      </c>
-      <c r="E3125" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3126" spans="1:5">
-      <c r="A3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3126" t="s">
-        <v>6002</v>
-      </c>
-      <c r="D3126" t="s">
-        <v>6003</v>
-      </c>
-      <c r="E3126" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3127" spans="1:5">
-      <c r="A3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3127" t="s">
-        <v>6004</v>
-      </c>
-      <c r="D3127" t="s">
-        <v>6005</v>
-      </c>
-      <c r="E3127" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3128" spans="1:5">
-      <c r="A3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3128" t="s">
-        <v>6006</v>
-      </c>
-      <c r="D3128" t="s">
-        <v>6006</v>
-      </c>
-      <c r="E3128" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3129" spans="1:5">
-      <c r="A3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3129" t="s">
-        <v>6007</v>
-      </c>
-      <c r="D3129" t="s">
-        <v>6008</v>
-      </c>
-      <c r="E3129" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3130" spans="1:5">
-      <c r="A3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3130" t="s">
-        <v>6009</v>
-      </c>
-      <c r="D3130" t="s">
-        <v>6010</v>
-      </c>
-      <c r="E3130" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3131" spans="1:5">
-      <c r="A3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3131" t="s">
-        <v>6011</v>
-      </c>
-      <c r="D3131" t="s">
-        <v>6012</v>
-      </c>
-      <c r="E3131" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3132" spans="1:5">
-      <c r="A3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3132" t="s">
-        <v>6013</v>
-      </c>
-      <c r="D3132" t="s">
-        <v>6014</v>
-      </c>
-      <c r="E3132" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3133" spans="1:5">
-      <c r="A3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3133" t="s">
-        <v>6015</v>
-      </c>
-      <c r="D3133" t="s">
-        <v>6016</v>
-      </c>
-      <c r="E3133" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3134" spans="1:5">
-      <c r="A3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3134" t="s">
-        <v>6017</v>
-      </c>
-      <c r="D3134" t="s">
-        <v>6017</v>
-      </c>
-      <c r="E3134" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3135" spans="1:5">
-      <c r="A3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3135" t="s">
-        <v>6018</v>
-      </c>
-      <c r="D3135" t="s">
-        <v>6019</v>
-      </c>
-      <c r="E3135" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3136" spans="1:5">
-      <c r="A3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3136" t="s">
-        <v>6020</v>
-      </c>
-      <c r="D3136" t="s">
-        <v>6021</v>
-      </c>
-      <c r="E3136" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3137" spans="1:5">
-      <c r="A3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3137" t="s">
-        <v>6022</v>
-      </c>
-      <c r="D3137" t="s">
-        <v>6023</v>
-      </c>
-      <c r="E3137" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3138" spans="1:5">
-      <c r="A3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3138" t="s">
-        <v>6024</v>
-      </c>
-      <c r="D3138" t="s">
-        <v>6025</v>
-      </c>
-      <c r="E3138" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3139" spans="1:5">
-      <c r="A3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3139" t="s">
-        <v>6026</v>
-      </c>
-      <c r="D3139" t="s">
-        <v>6027</v>
-      </c>
-      <c r="E3139" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3140" spans="1:5">
-      <c r="A3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3140" t="s">
-        <v>6028</v>
-      </c>
-      <c r="D3140" t="s">
-        <v>6029</v>
-      </c>
-      <c r="E3140" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3141" spans="1:5">
-      <c r="A3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3141" t="s">
-        <v>6030</v>
-      </c>
-      <c r="D3141" t="s">
-        <v>6031</v>
-      </c>
-      <c r="E3141" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3142" spans="1:5">
-      <c r="A3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3142" t="s">
-        <v>6032</v>
-      </c>
-      <c r="D3142" t="s">
-        <v>6033</v>
-      </c>
-      <c r="E3142" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3143" spans="1:5">
-      <c r="A3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3143" t="s">
-        <v>6034</v>
-      </c>
-      <c r="D3143" t="s">
-        <v>6035</v>
-      </c>
-      <c r="E3143" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3144" spans="1:5">
-      <c r="A3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3144" t="s">
-        <v>6036</v>
-      </c>
-      <c r="D3144" t="s">
-        <v>6037</v>
-      </c>
-      <c r="E3144" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3145" spans="1:5">
-      <c r="A3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3145" t="s">
-        <v>6038</v>
-      </c>
-      <c r="D3145" t="s">
-        <v>6039</v>
-      </c>
-      <c r="E3145" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3146" spans="1:5">
-      <c r="A3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3146" t="s">
-        <v>6040</v>
-      </c>
-      <c r="D3146" t="s">
-        <v>6041</v>
-      </c>
-      <c r="E3146" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3147" spans="1:5">
-      <c r="A3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3147" t="s">
-        <v>6042</v>
-      </c>
-      <c r="D3147" t="s">
-        <v>6043</v>
-      </c>
-      <c r="E3147" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3148" spans="1:5">
-      <c r="A3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3148" t="s">
-        <v>6044</v>
-      </c>
-      <c r="D3148" t="s">
-        <v>6044</v>
-      </c>
-      <c r="E3148" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3149" spans="1:5">
-      <c r="A3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3149" t="s">
-        <v>6045</v>
-      </c>
-      <c r="D3149" t="s">
-        <v>6046</v>
-      </c>
-      <c r="E3149" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3150" spans="1:5">
-      <c r="A3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3150" t="s">
-        <v>6047</v>
-      </c>
-      <c r="D3150" t="s">
-        <v>6048</v>
-      </c>
-      <c r="E3150" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3151" spans="1:5">
-      <c r="A3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3151" t="s">
-        <v>6049</v>
-      </c>
-      <c r="D3151" t="s">
-        <v>6050</v>
-      </c>
-      <c r="E3151" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3152" spans="1:5">
-      <c r="A3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3152" t="s">
-        <v>6051</v>
-      </c>
-      <c r="D3152" t="s">
-        <v>6052</v>
-      </c>
-      <c r="E3152" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3153" spans="1:5">
-      <c r="A3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3153" t="s">
-        <v>6053</v>
-      </c>
-      <c r="D3153" t="s">
-        <v>6054</v>
-      </c>
-      <c r="E3153" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3154" spans="1:5">
-      <c r="A3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3154" t="s">
-        <v>6055</v>
-      </c>
-      <c r="D3154" t="s">
-        <v>6056</v>
-      </c>
-      <c r="E3154" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3155" spans="1:5">
-      <c r="A3155" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3155" t="s">
-        <v>6057</v>
-      </c>
-      <c r="C3155" t="s">
-        <v>6058</v>
-      </c>
-      <c r="D3155" t="s">
-        <v>6059</v>
-      </c>
-      <c r="E3155" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3156" spans="1:5">
-      <c r="A3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3156" t="s">
-        <v>6060</v>
-      </c>
-      <c r="D3156" t="s">
-        <v>6061</v>
-      </c>
-      <c r="E3156" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3157" spans="1:5">
-      <c r="A3157" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3157" t="s">
-        <v>5879</v>
-      </c>
-      <c r="C3157" t="s">
-        <v>6062</v>
-      </c>
-      <c r="D3157" t="s">
-        <v>6063</v>
-      </c>
-      <c r="E3157" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3158" spans="1:5">
-      <c r="A3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3158" t="s">
-        <v>6064</v>
-      </c>
-      <c r="D3158" t="s">
-        <v>6065</v>
-      </c>
-      <c r="E3158" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3159" spans="1:5">
-      <c r="A3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3159" t="s">
-        <v>6066</v>
-      </c>
-      <c r="D3159" t="s">
-        <v>6066</v>
-      </c>
-      <c r="E3159" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3160" spans="1:5">
-      <c r="A3160" t="s">
-        <v>6067</v>
-      </c>
-      <c r="B3160" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3160" t="s">
-        <v>6068</v>
-      </c>
-      <c r="D3160" t="s">
-        <v>6068</v>
-      </c>
-      <c r="E3160" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3161" spans="1:5">
-      <c r="A3161" t="s">
-        <v>6067</v>
-      </c>
-      <c r="B3161" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3161" t="s">
-        <v>6069</v>
-      </c>
-      <c r="D3161" t="s">
-        <v>6069</v>
-      </c>
-      <c r="E3161" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3162" spans="1:5">
-      <c r="A3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3162" t="s">
-        <v>6070</v>
-      </c>
-      <c r="D3162" t="s">
-        <v>6070</v>
-      </c>
-      <c r="E3162" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3163" spans="1:5">
-      <c r="A3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3163" t="s">
-        <v>6071</v>
-      </c>
-      <c r="D3163" t="s">
-        <v>6071</v>
-      </c>
-      <c r="E3163" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3164" spans="1:5">
-      <c r="A3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3164" t="s">
-        <v>6072</v>
-      </c>
-      <c r="D3164" t="s">
-        <v>6073</v>
-      </c>
-      <c r="E3164" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3165" spans="1:5">
-      <c r="A3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3165" t="s">
-        <v>6074</v>
-      </c>
-      <c r="D3165" t="s">
-        <v>6074</v>
-      </c>
-      <c r="E3165" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3166" spans="1:5">
-      <c r="A3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3166" t="s">
-        <v>6075</v>
-      </c>
-      <c r="D3166" t="s">
-        <v>6076</v>
-      </c>
-      <c r="E3166" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3167" spans="1:5">
-      <c r="A3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3167" t="s">
-        <v>6077</v>
-      </c>
-      <c r="D3167" t="s">
-        <v>2619</v>
-      </c>
-      <c r="E3167" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3168" spans="1:5">
-      <c r="A3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3168" t="s">
-        <v>6078</v>
-      </c>
-      <c r="D3168" t="s">
-        <v>6079</v>
-      </c>
-      <c r="E3168" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3169" spans="1:5">
-      <c r="A3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3169" t="s">
-        <v>6080</v>
-      </c>
-      <c r="D3169" t="s">
-        <v>6081</v>
-      </c>
-      <c r="E3169" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3170" spans="1:5">
-      <c r="A3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3170" t="s">
-        <v>6082</v>
-      </c>
-      <c r="D3170" t="s">
-        <v>6083</v>
-      </c>
-      <c r="E3170" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3171" spans="1:5">
-      <c r="A3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3171" t="s">
-        <v>6084</v>
-      </c>
-      <c r="D3171" t="s">
-        <v>6085</v>
-      </c>
-      <c r="E3171" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3172" spans="1:5">
-      <c r="A3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3172" t="s">
-        <v>6086</v>
-      </c>
-      <c r="D3172" t="s">
-        <v>6087</v>
-      </c>
-      <c r="E3172" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3173" spans="1:5">
-      <c r="A3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3173" t="s">
-        <v>6088</v>
-      </c>
-      <c r="D3173" t="s">
-        <v>6089</v>
-      </c>
-      <c r="E3173" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3174" spans="1:5">
-      <c r="A3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3174" t="s">
-        <v>6090</v>
-      </c>
-      <c r="D3174" t="s">
-        <v>6091</v>
-      </c>
-      <c r="E3174" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3175" spans="1:5">
-      <c r="A3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3175" t="s">
-        <v>6092</v>
-      </c>
-      <c r="D3175" t="s">
-        <v>6093</v>
-      </c>
-      <c r="E3175" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3176" spans="1:5">
-      <c r="A3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3176" t="s">
-        <v>6094</v>
-      </c>
-      <c r="D3176" t="s">
-        <v>6095</v>
-      </c>
-      <c r="E3176" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3177" spans="1:5">
-      <c r="A3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3177" t="s">
-        <v>6096</v>
-      </c>
-      <c r="D3177" t="s">
-        <v>6097</v>
-      </c>
-      <c r="E3177" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3178" spans="1:5">
-      <c r="A3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3178" t="s">
-        <v>6098</v>
-      </c>
-      <c r="D3178" t="s">
-        <v>6099</v>
-      </c>
-      <c r="E3178" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3179" spans="1:5">
-      <c r="A3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3179" t="s">
-        <v>6100</v>
-      </c>
-      <c r="D3179" t="s">
-        <v>6101</v>
-      </c>
-      <c r="E3179" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3180" spans="1:5">
-      <c r="A3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3180" t="s">
-        <v>6102</v>
-      </c>
-      <c r="D3180" t="s">
-        <v>6103</v>
-      </c>
-      <c r="E3180" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3181" spans="1:5">
-      <c r="A3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3181" t="s">
-        <v>6104</v>
-      </c>
-      <c r="D3181" t="s">
-        <v>1800</v>
-      </c>
-      <c r="E3181" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3182" spans="1:5">
-      <c r="A3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3182" t="s">
-        <v>6105</v>
-      </c>
-      <c r="D3182" t="s">
-        <v>6106</v>
-      </c>
-      <c r="E3182" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3183" spans="1:5">
-      <c r="A3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3183" t="s">
-        <v>6107</v>
-      </c>
-      <c r="D3183" t="s">
-        <v>6108</v>
-      </c>
-      <c r="E3183" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3184" spans="1:5">
-      <c r="A3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3184" t="s">
-        <v>6109</v>
-      </c>
-      <c r="D3184" t="s">
-        <v>6110</v>
-      </c>
-      <c r="E3184" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3185" spans="1:5">
-      <c r="A3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3185" t="s">
-        <v>6111</v>
-      </c>
-      <c r="D3185" t="s">
-        <v>6112</v>
-      </c>
-      <c r="E3185" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3186" spans="1:5">
-      <c r="A3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3186" t="s">
-        <v>6113</v>
-      </c>
-      <c r="D3186" t="s">
-        <v>6114</v>
-      </c>
-      <c r="E3186" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3187" spans="1:5">
-      <c r="A3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3187" t="s">
-        <v>6115</v>
-      </c>
-      <c r="D3187" t="s">
-        <v>6116</v>
-      </c>
-      <c r="E3187" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3188" spans="1:5">
-      <c r="A3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3188" t="s">
-        <v>6117</v>
-      </c>
-      <c r="D3188" t="s">
-        <v>6118</v>
-      </c>
-      <c r="E3188" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3189" spans="1:5">
-      <c r="A3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3189" t="s">
-        <v>6119</v>
-      </c>
-      <c r="D3189" t="s">
-        <v>6120</v>
-      </c>
-      <c r="E3189" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3190" spans="1:5">
-      <c r="A3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3190" t="s">
-        <v>6121</v>
-      </c>
-      <c r="D3190" t="s">
-        <v>6122</v>
-      </c>
-      <c r="E3190" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3191" spans="1:5">
-      <c r="A3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3191" t="s">
-        <v>6123</v>
-      </c>
-      <c r="D3191" t="s">
-        <v>6124</v>
-      </c>
-      <c r="E3191" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3192" spans="1:5">
-      <c r="A3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3192" t="s">
-        <v>6125</v>
-      </c>
-      <c r="D3192" t="s">
-        <v>6126</v>
-      </c>
-      <c r="E3192" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3193" spans="1:5">
-      <c r="A3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3193" t="s">
-        <v>6127</v>
-      </c>
-      <c r="D3193" t="s">
-        <v>6128</v>
-      </c>
-      <c r="E3193" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3194" spans="1:5">
-      <c r="A3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3194" t="s">
-        <v>6129</v>
-      </c>
-      <c r="D3194" t="s">
-        <v>6130</v>
-      </c>
-      <c r="E3194" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3195" spans="1:5">
-      <c r="A3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3195" t="s">
-        <v>6131</v>
-      </c>
-      <c r="D3195" t="s">
-        <v>6132</v>
-      </c>
-      <c r="E3195" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3196" spans="1:5">
-      <c r="A3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3196" t="s">
-        <v>6133</v>
-      </c>
-      <c r="D3196" t="s">
-        <v>6134</v>
-      </c>
-      <c r="E3196" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3197" spans="1:5">
-      <c r="A3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3197" t="s">
-        <v>6135</v>
-      </c>
-      <c r="D3197" t="s">
-        <v>6136</v>
-      </c>
-      <c r="E3197" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3198" spans="1:5">
-      <c r="A3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3198" t="s">
-        <v>6137</v>
-      </c>
-      <c r="D3198" t="s">
-        <v>6138</v>
-      </c>
-      <c r="E3198" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3199" spans="1:5">
-      <c r="A3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3199" t="s">
-        <v>6139</v>
-      </c>
-      <c r="D3199" t="s">
-        <v>6140</v>
-      </c>
-      <c r="E3199" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3200" spans="1:5">
-      <c r="A3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3200" t="s">
-        <v>6141</v>
-      </c>
-      <c r="D3200" t="s">
-        <v>6142</v>
-      </c>
-      <c r="E3200" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3201" spans="1:5">
-      <c r="A3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3201" t="s">
-        <v>6143</v>
-      </c>
-      <c r="D3201" t="s">
-        <v>6144</v>
-      </c>
-      <c r="E3201" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3202" spans="1:5">
-      <c r="A3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3202" t="s">
-        <v>6145</v>
-      </c>
-      <c r="D3202" t="s">
-        <v>6146</v>
-      </c>
-      <c r="E3202" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3203" spans="1:5">
-      <c r="A3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3203" t="s">
-        <v>6147</v>
-      </c>
-      <c r="D3203" t="s">
-        <v>6148</v>
-      </c>
-      <c r="E3203" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3204" spans="1:5">
-      <c r="A3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3204" t="s">
-        <v>6149</v>
-      </c>
-      <c r="D3204" t="s">
-        <v>6150</v>
-      </c>
-      <c r="E3204" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3205" spans="1:5">
-      <c r="A3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3205" t="s">
-        <v>6151</v>
-      </c>
-      <c r="D3205" t="s">
-        <v>6152</v>
-      </c>
-      <c r="E3205" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3206" spans="1:5">
-      <c r="A3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3206" t="s">
-        <v>6153</v>
-      </c>
-      <c r="D3206" t="s">
-        <v>6154</v>
-      </c>
-      <c r="E3206" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3207" spans="1:5">
-      <c r="A3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3207" t="s">
-        <v>6155</v>
-      </c>
-      <c r="D3207" t="s">
-        <v>6156</v>
-      </c>
-      <c r="E3207" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3208" spans="1:5">
-      <c r="A3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3208" t="s">
-        <v>6157</v>
-      </c>
-      <c r="D3208" t="s">
-        <v>6158</v>
-      </c>
-      <c r="E3208" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3209" spans="1:5">
-      <c r="A3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3209" t="s">
-        <v>6159</v>
-      </c>
-      <c r="D3209" t="s">
-        <v>6160</v>
-      </c>
-      <c r="E3209" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3210" spans="1:5">
-      <c r="A3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3210" t="s">
-        <v>6161</v>
-      </c>
-      <c r="D3210" t="s">
-        <v>6162</v>
-      </c>
-      <c r="E3210" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3211" spans="1:5">
-      <c r="A3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3211" t="s">
-        <v>6163</v>
-      </c>
-      <c r="D3211" t="s">
-        <v>6164</v>
-      </c>
-      <c r="E3211" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3212" spans="1:5">
-      <c r="A3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3212" t="s">
-        <v>6165</v>
-      </c>
-      <c r="D3212" t="s">
-        <v>6166</v>
-      </c>
-      <c r="E3212" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3213" spans="1:5">
-      <c r="A3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3213" t="s">
-        <v>6167</v>
-      </c>
-      <c r="D3213" t="s">
-        <v>2214</v>
-      </c>
-      <c r="E3213" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3214" spans="1:5">
-      <c r="A3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3214" t="s">
-        <v>6168</v>
-      </c>
-      <c r="D3214" t="s">
-        <v>6169</v>
-      </c>
-      <c r="E3214" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3215" spans="1:5">
-      <c r="A3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3215" t="s">
-        <v>6170</v>
-      </c>
-      <c r="D3215" t="s">
-        <v>6171</v>
-      </c>
-      <c r="E3215" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3216" spans="1:5">
-      <c r="A3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3216" t="s">
-        <v>6172</v>
-      </c>
-      <c r="D3216" t="s">
-        <v>6173</v>
-      </c>
-      <c r="E3216" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3217" spans="1:5">
-      <c r="A3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3217" t="s">
-        <v>6174</v>
-      </c>
-      <c r="D3217" t="s">
-        <v>6175</v>
-      </c>
-      <c r="E3217" t="s">
         <v>8</v>
       </c>
     </row>
